--- a/数据库整合2/merged_0.xlsx
+++ b/数据库整合2/merged_0.xlsx
@@ -13265,7 +13265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13288,6024 +13288,6096 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A00,ICD10:A00</t>
+          <t>2,DOID:0040046,DOID:0040056</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>["""Cholera"""],["""Cholera"""]</t>
+          <t>["""allergic contact dermatitis to Ni""","""nickel allergic contact dermatitis"""],["""chromium allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2,ICD10:A00.0,ICD10_CM:A00.0</t>
+          <t>2,ICD10:A00,ICD10_CM:A00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>["""Cholera due to Vibrio cholerae 01, biovar cholerae""","""Classical cholera"""],["""Classical cholera""","""Cholera due to Vibrio cholerae 01, biovar cholerae"""]</t>
+          <t>["""Cholera"""],["""Cholera"""]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A00.1,ICD10:A00.1</t>
+          <t>2,ICD10:A00.0,ICD10_CM:A00.0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>["""Cholera eltor""","""Cholera due to Vibrio cholerae 01, biovar eltor"""],["""Cholera eltor""","""Cholera due to Vibrio cholerae 01, biovar eltor"""]</t>
+          <t>["""Classical cholera""","""Cholera due to Vibrio cholerae 01, biovar cholerae"""],["""Cholera due to Vibrio cholerae 01, biovar cholerae""","""Classical cholera"""]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2,ICD10:A00.9,ICD10_CM:A00.9</t>
+          <t>2,ICD10_CM:A00.1,ICD10:A00.1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>["""Cholera, unspecified"""],["""Cholera, unspecified"""]</t>
+          <t>["""Cholera eltor""","""Cholera due to Vibrio cholerae 01, biovar eltor"""],["""Cholera eltor""","""Cholera due to Vibrio cholerae 01, biovar eltor"""]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A01,ICD10:A01</t>
+          <t>2,ICD10_CM:A00.9,ICD10:A00.9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>["""Typhoid and paratyphoid fevers"""],["""Typhoid and paratyphoid fevers"""]</t>
+          <t>["""Cholera, unspecified"""],["""Cholera, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A01.0,ICD10:A01.0</t>
+          <t>2,ICD10:A01,ICD10_CM:A01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>["""Typhoid fever""","""Infection due to Salmonella typhi"""],["""Typhoid fever""","""Infection due to Salmonella typhi"""]</t>
+          <t>["""Typhoid and paratyphoid fevers"""],["""Typhoid and paratyphoid fevers"""]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2,ICD10:A01.1,ICD10_CM:A01.1</t>
+          <t>2,ICD10:A01.0,ICD10_CM:A01.0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>["""Paratyphoid fever A"""],["""Paratyphoid fever A"""]</t>
+          <t>["""Typhoid fever""","""Infection due to Salmonella typhi"""],["""Typhoid fever""","""Infection due to Salmonella typhi"""]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A01.2,ICD10:A01.2</t>
+          <t>2,ICD10:A01.1,ICD10_CM:A01.1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>["""Paratyphoid fever B"""],["""Paratyphoid fever B"""]</t>
+          <t>["""Paratyphoid fever A"""],["""Paratyphoid fever A"""]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A01.3,ICD10:A01.3</t>
+          <t>2,ICD10:A01.2,ICD10_CM:A01.2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>["""Paratyphoid fever C"""],["""Paratyphoid fever C"""]</t>
+          <t>["""Paratyphoid fever B"""],["""Paratyphoid fever B"""]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A01.4,ICD10:A01.4</t>
+          <t>2,ICD10_CM:A01.3,ICD10:A01.3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>["""Paratyphoid fever, unspecified""","""Infection due to Salmonella paratyphi NOS"""],["""Paratyphoid fever, unspecified""","""Infection due to Salmonella paratyphi NOS"""]</t>
+          <t>["""Paratyphoid fever C"""],["""Paratyphoid fever C"""]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2,ICD10:A02.0,ICD10_CM:A02.0</t>
+          <t>2,ICD10_CM:A01.4,ICD10:A01.4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>["""Salmonellosis""","""Salmonella enteritis"""],["""Salmonellosis""","""Salmonella enteritis"""]</t>
+          <t>["""Infection due to Salmonella paratyphi NOS""","""Paratyphoid fever, unspecified"""],["""Infection due to Salmonella paratyphi NOS""","""Paratyphoid fever, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2,ICD10:A02.1,ICD10_CM:A02.1</t>
+          <t>2,ICD10_CM:A02.0,ICD10:A02.0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>["""Salmonella sepsis"""],["""Salmonella sepsis"""]</t>
+          <t>["""Salmonellosis""","""Salmonella enteritis"""],["""Salmonellosis""","""Salmonella enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A02.29,ICD10_CM:A02.2</t>
+          <t>2,ICD10:A02.1,ICD10_CM:A02.1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>["""Salmonella with other localized infection"""],["""Localized salmonella infections"""]</t>
+          <t>["""Salmonella sepsis"""],["""Salmonella sepsis"""]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A02.8,ICD10:A02.8</t>
+          <t>2,ICD10_CM:A02.2,ICD10_CM:A02.29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>["""Other specified salmonella infections"""],["""Other specified salmonella infections"""]</t>
+          <t>["""Localized salmonella infections"""],["""Salmonella with other localized infection"""]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A02.9,ICD10:A02.9</t>
+          <t>2,ICD10:A02.8,ICD10_CM:A02.8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>["""Salmonella infection, unspecified"""],["""Salmonella infection, unspecified"""]</t>
+          <t>["""Other specified salmonella infections"""],["""Other specified salmonella infections"""]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4,ICD10_CM:A03.8,ICD10:A03.8,ICD10:A03,ICD10_CM:A03</t>
+          <t>2,ICD10_CM:A02.9,ICD10:A02.9</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>["""Other shigellosis"""],["""Other shigellosis"""],["""Shigellosis"""],["""Shigellosis"""]</t>
+          <t>["""Salmonella infection, unspecified"""],["""Salmonella infection, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A03.0,ICD10:A03.0</t>
+          <t>4,ICD10:A03.8,ICD10_CM:A03.8,ICD10:A03,ICD10_CM:A03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>["""Group A shigellosis [Shiga-Kruse dysentery]""","""Shigellosis due to Shigella dysenteriae"""],["""Group A shigellosis [Shiga-Kruse dysentery]""","""Shigellosis due to Shigella dysenteriae"""]</t>
+          <t>["""Other shigellosis"""],["""Other shigellosis"""],["""Shigellosis"""],["""Shigellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A03.1,ICD10:A03.1</t>
+          <t>2,ICD10:A03.0,ICD10_CM:A03.0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>["""Group B shigellosis""","""Shigellosis due to Shigella flexneri"""],["""Group B shigellosis""","""Shigellosis due to Shigella flexneri"""]</t>
+          <t>["""Group A shigellosis [Shiga-Kruse dysentery]""","""Shigellosis due to Shigella dysenteriae"""],["""Group A shigellosis [Shiga-Kruse dysentery]""","""Shigellosis due to Shigella dysenteriae"""]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A03.2,ICD10:A03.2</t>
+          <t>2,ICD10_CM:A03.1,ICD10:A03.1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>["""Shigellosis due to Shigella boydii""","""Group C shigellosis"""],["""Shigellosis due to Shigella boydii""","""Group C shigellosis"""]</t>
+          <t>["""Shigellosis due to Shigella flexneri""","""Group B shigellosis"""],["""Shigellosis due to Shigella flexneri""","""Group B shigellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A03.3,ICD10:A03.3</t>
+          <t>2,ICD10_CM:A03.2,ICD10:A03.2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>["""Shigellosis due to Shigella sonnei""","""Group D shigellosis"""],["""Shigellosis due to Shigella sonnei""","""Group D shigellosis"""]</t>
+          <t>["""Group C shigellosis""","""Shigellosis due to Shigella boydii"""],["""Group C shigellosis""","""Shigellosis due to Shigella boydii"""]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2,ICD10:A03.9,ICD10_CM:A03.9</t>
+          <t>2,ICD10:A03.3,ICD10_CM:A03.3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>["""Bacillary dysentery NOS""","""Shigellosis, unspecified"""],["""Bacillary dysentery NOS""","""Shigellosis, unspecified"""]</t>
+          <t>["""Group D shigellosis""","""Shigellosis due to Shigella sonnei"""],["""Group D shigellosis""","""Shigellosis due to Shigella sonnei"""]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A04.0,ICD10:A04.0</t>
+          <t>2,ICD10_CM:A03.9,ICD10:A03.9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>["""Enteropathogenic Escherichia coli infection"""],["""Enteropathogenic Escherichia coli infection"""]</t>
+          <t>["""Bacillary dysentery NOS""","""Shigellosis, unspecified"""],["""Bacillary dysentery NOS""","""Shigellosis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2,ICD10:A04.1,ICD10_CM:A04.1</t>
+          <t>3,ICD10_CM:A18.83,ICD10_CM:A18.32,ICD10_CM:A04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>["""Enterotoxigenic Escherichia coli infection"""],["""Enterotoxigenic Escherichia coli infection"""]</t>
+          <t>["""Tuberculosis of digestive tract organs, not elsewhere classified""","""tuberculosis of intestine"""],["""Tuberculous enteritis""","""Tuberculosis of intestine (large) (small)""","""Tuberculosis of intestine (large) (small)Tuberculous enteritis""","""Tuberculosis of anus and rectum"""],["""Other bacterial intestinal infections""","""tuberculous enteritis""","""bacterial foodborne intoxications, NEC"""]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2,ICD10:A04.2,ICD10_CM:A04.2</t>
+          <t>2,ICD10:A04.0,ICD10_CM:A04.0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>["""Enteroinvasive Escherichia coli infection"""],["""Enteroinvasive Escherichia coli infection"""]</t>
+          <t>["""Enteropathogenic Escherichia coli infection"""],["""Enteropathogenic Escherichia coli infection"""]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A04.4,ICD10:A04.4</t>
+          <t>2,ICD10_CM:A04.1,ICD10:A04.1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>["""Escherichia coli enteritis NOS""","""Other intestinal Escherichia coli infections"""],["""Escherichia coli enteritis NOS""","""Other intestinal Escherichia coli infections"""]</t>
+          <t>["""Enterotoxigenic Escherichia coli infection"""],["""Enterotoxigenic Escherichia coli infection"""]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2,ICD10:A04.5,ICD10_CM:A04.5</t>
+          <t>2,ICD10_CM:A04.2,ICD10:A04.2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>["""Campylobacter enteritis"""],["""Campylobacter enteritis"""]</t>
+          <t>["""Enteroinvasive Escherichia coli infection"""],["""Enteroinvasive Escherichia coli infection"""]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A04.8,ICD10:A04.8</t>
+          <t>2,ICD10_CM:A04.4,ICD10:A04.4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>["""Other specified bacterial intestinal infections"""],["""Other specified bacterial intestinal infections"""]</t>
+          <t>["""Other intestinal Escherichia coli infections""","""Escherichia coli enteritis NOS"""],["""Other intestinal Escherichia coli infections""","""Escherichia coli enteritis NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A04.9,ICD10:A04.9</t>
+          <t>2,ICD10_CM:A04.5,ICD10:A04.5</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>["""Bacterial enteritis NOS""","""Bacterial intestinal infection, unspecified"""],["""Bacterial enteritis NOS""","""Bacterial intestinal infection, unspecified"""]</t>
+          <t>["""Campylobacter enteritis"""],["""Campylobacter enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2,ICD10:A05.0,ICD10_CM:A05.0</t>
+          <t>2,ICD10_CM:A04.8,ICD10:A04.8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>["""Foodborne staphylococcal intoxication"""],["""Foodborne staphylococcal intoxication"""]</t>
+          <t>["""Other specified bacterial intestinal infections"""],["""Other specified bacterial intestinal infections"""]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2,ICD10:A05.3,ICD10_CM:A05.3</t>
+          <t>2,ICD10:A04.9,ICD10_CM:A04.9</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>["""Foodborne Vibrio parahaemolyticus intoxication"""],["""Foodborne Vibrio parahaemolyticus intoxication"""]</t>
+          <t>["""Bacterial intestinal infection, unspecified""","""Bacterial enteritis NOS"""],["""Bacterial intestinal infection, unspecified""","""Bacterial enteritis NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A05.4,ICD10:A05.4</t>
+          <t>2,ICD10_CM:A05.0,ICD10:A05.0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>["""Foodborne Bacillus cereus intoxication"""],["""Foodborne Bacillus cereus intoxication"""]</t>
+          <t>["""Foodborne staphylococcal intoxication"""],["""Foodborne staphylococcal intoxication"""]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2,ICD10:A05.8,ICD10_CM:A05.8</t>
+          <t>2,ICD10:A05.3,ICD10_CM:A05.3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>["""Other specified bacterial foodborne intoxications"""],["""Other specified bacterial foodborne intoxications"""]</t>
+          <t>["""Foodborne Vibrio parahaemolyticus intoxication"""],["""Foodborne Vibrio parahaemolyticus intoxication"""]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A05.9,ICD10:A05.9</t>
+          <t>2,ICD10:A05.4,ICD10_CM:A05.4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>["""Bacterial foodborne intoxication, unspecified"""],["""Bacterial foodborne intoxication, unspecified"""]</t>
+          <t>["""Foodborne Bacillus cereus intoxication"""],["""Foodborne Bacillus cereus intoxication"""]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A07,ICD10:A07</t>
+          <t>2,ICD10:A05.8,ICD10_CM:A05.8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>["""Other protozoal intestinal diseases"""],["""Other protozoal intestinal diseases"""]</t>
+          <t>["""Other specified bacterial foodborne intoxications"""],["""Other specified bacterial foodborne intoxications"""]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2,ICD10:A07.0,ICD10_CM:A07.0</t>
+          <t>2,ICD10_CM:A05.9,ICD10:A05.9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>["""Balantidial dysentery""","""Balantidiasis"""],["""Balantidial dysentery""","""Balantidiasis"""]</t>
+          <t>["""Bacterial foodborne intoxication, unspecified"""],["""Bacterial foodborne intoxication, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A07.1,ICD10:A07.1</t>
+          <t>2,ICD10:A07,ICD10_CM:A07</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>["""Giardiasis [lambliasis]"""],["""Giardiasis [lambliasis]"""]</t>
+          <t>["""Other protozoal intestinal diseases"""],["""Other protozoal intestinal diseases"""]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A07.2,ICD10:A07.2</t>
+          <t>2,ICD10:A07.0,ICD10_CM:A07.0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>["""Cryptosporidiosis"""],["""Cryptosporidiosis"""]</t>
+          <t>["""Balantidial dysentery""","""Balantidiasis"""],["""Balantidial dysentery""","""Balantidiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A08.0,ICD10:A08.0</t>
+          <t>2,ICD10:A07.1,ICD10_CM:A07.1</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>["""Rotaviral enteritis"""],["""Rotaviral enteritis"""]</t>
+          <t>["""Giardiasis [lambliasis]"""],["""Giardiasis [lambliasis]"""]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A08.2,ICD10:A08.2</t>
+          <t>2,ICD10:A07.2,ICD10_CM:A07.2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>["""Adenoviral enteritis"""],["""Adenoviral enteritis"""]</t>
+          <t>["""Cryptosporidiosis"""],["""Cryptosporidiosis"""]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2,ICD10:A08.3,ICD10_CM:A08.3</t>
+          <t>2,ICD10_CM:A08.0,ICD10:A08.0</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>["""Other viral enteritis"""],["""Other viral enteritis"""]</t>
+          <t>["""Rotaviral enteritis"""],["""Rotaviral enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2,ICD10:A08.5,ICD10_CM:A08.8</t>
+          <t>2,ICD10_CM:A08.2,ICD10:A08.2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>["""Other specified intestinal infections"""],["""Other specified intestinal infections"""]</t>
+          <t>["""Adenoviral enteritis"""],["""Adenoviral enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3,ICD10_CM:A17,ICD10:A17,ICD10_CM:A17.8</t>
+          <t>2,ICD10_CM:A08.3,ICD10:A08.3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of nervous system"""],["""Tuberculosis of nervous system"""],["""Other tuberculosis of nervous system"""]</t>
+          <t>["""Other viral enteritis"""],["""Other viral enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A18,ICD10:A18</t>
+          <t>2,ICD10:A08.5,ICD10_CM:A08.8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other organs"""],["""Tuberculosis of other organs"""]</t>
+          <t>["""Other specified intestinal infections"""],["""Other specified intestinal infections"""]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3,ICD10:A19.8,ICD10_CM:A19.8,ICD10_CM:A19</t>
+          <t>5,ICD10_CM:A18.2,ICD10_CM:A15.6,ICD10_CM:A18.39,ICD10_CM:A15.7,ICD10_CM:A15.4</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>["""Other miliary tuberculosis"""],["""Other miliary tuberculosis"""],["""Miliary tuberculosis"""]</t>
+          <t>["""tuberculous tracheobronchial adenopathy""","""Tuberculous peripheral lymphadenopathy""","""tuberculosis of mesenteric and retroperitoneal lymph nodes""","""tuberculosis of mesenteric and retroperitoneal lymph nodestuberculous tracheobronchial adenopathy""","""Tuberculous adenitis"""],["""Tuberculous pleurisy""","""primary respiratory tuberculosis""","""Tuberculosis of pleura Tuberculous empyema"""],["""Tuberculosis of mesenteric glands""","""Tuberculosis of mesenteric glandsTuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of retroperitoneal (lymph glands)""","""Retroperitoneal tuberculosis"""],["""Primary respiratory tuberculosis"""],["""Tuberculosis of hilar lymph nodes""","""Tuberculosis of mediastinal lymph nodes""","""Tuberculosis of tracheobronchial lymph nodes""","""Tuberculosis of mediastinal lymph nodesTuberculosis of hilar lymph nodes""","""Tuberculosis of intrathoracic lymph nodes"""]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A19.0,ICD10:A19.0</t>
+          <t>3,ICD10:A17,ICD10_CM:A17.8,ICD10_CM:A17</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>["""Acute miliary tuberculosis of a single specified site"""],["""Acute miliary tuberculosis of a single specified site"""]</t>
+          <t>["""Tuberculosis of nervous system"""],["""Other tuberculosis of nervous system"""],["""Tuberculosis of nervous system"""]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2,ICD10:A19.1,ICD10_CM:A19.1</t>
+          <t>2,ICD10_CM:A17.82,ICD10_CM:A17.0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>["""Acute miliary tuberculosis of multiple sites"""],["""Acute miliary tuberculosis of multiple sites"""]</t>
+          <t>["""Tuberculous myelitis""","""Tuberculous meningoencephalitis"""],["""Tuberculous meningitis""","""Tuberculosis of meninges (cerebral)(spinal)""","""Tuberculous meningitisTuberculosis of meninges (cerebral)(spinal)""","""tuberculous meningoencephalitis""","""Tuberculous leptomeningitis"""]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A19.2,ICD10:A19.2</t>
+          <t>2,ICD10_CM:A17.1,ICD10_CM:A17.81</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>["""Acute miliary tuberculosis, unspecified"""],["""Acute miliary tuberculosis, unspecified"""]</t>
+          <t>["""tuberculoma of brain and spinal cord""","""Meningeal tuberculoma""","""Tuberculoma of meninges (cerebral) (spinal)""","""Tuberculoma of meninges (cerebral) (spinal)Meningeal tuberculoma"""],["""Tuberculous abscess of brain and spinal cord""","""Tuberculoma of brain and spinal cord"""]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2,ICD10:A19.9,ICD10_CM:A19.9</t>
+          <t>2,ICD10:A18,ICD10_CM:A18</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>["""Miliary tuberculosis, unspecified"""],["""Miliary tuberculosis, unspecified"""]</t>
+          <t>["""Tuberculosis of other organs"""],["""Tuberculosis of other organs"""]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2,ICD10:A20.0,ICD10_CM:A20.0</t>
+          <t>4,ICD10_CM:A18.03,ICD10_CM:A18.5,ICD10_CM:A18.4,ICD10_CM:A18.6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>["""Bubonic plague"""],["""Bubonic plague"""]</t>
+          <t>["""Tuberculous mastoiditisTuberculous osteomyelitis""","""Tuberculous mastoiditis""","""Tuberculous osteomyelitis""","""Tuberculosis of other bones"""],["""Tuberculosis of eye""","""lupus vulgaris of eyelid"""],["""Lupus excedens""","""Tuberculosis of skin and subcutaneous tissuelupus erythematosus""","""Tuberculosis of skin and subcutaneous tissue""","""lupus erythematosus"""],["""Tuberculosis of (inner) (middle) ear""","""tuberculosis of external ear""","""tuberculous mastoiditis""","""tuberculosis of external eartuberculous mastoiditis"""]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2,ICD10:A20.1,ICD10_CM:A20.1</t>
+          <t>3,ICD10_CM:A19.8,ICD10_CM:A19,ICD10:A19.8</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>["""Cellulocutaneous plague"""],["""Cellulocutaneous plague"""]</t>
+          <t>["""Other miliary tuberculosis"""],["""Miliary tuberculosis"""],["""Other miliary tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2,ICD10:A20.2,ICD10_CM:A20.2</t>
+          <t>2,ICD10_CM:A19.0,ICD10:A19.0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>["""Pneumonic plague"""],["""Pneumonic plague"""]</t>
+          <t>["""Acute miliary tuberculosis of a single specified site"""],["""Acute miliary tuberculosis of a single specified site"""]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2,ICD10:A20.3,ICD10_CM:A20.3</t>
+          <t>2,ICD10:A19.1,ICD10_CM:A19.1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>["""Plague meningitis"""],["""Plague meningitis"""]</t>
+          <t>["""Acute miliary tuberculosis of multiple sites"""],["""Acute miliary tuberculosis of multiple sites"""]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2,ICD10:A20.9,ICD10_CM:A20.9</t>
+          <t>2,ICD10_CM:A19.2,ICD10:A19.2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>["""Plague, unspecified"""],["""Plague, unspecified"""]</t>
+          <t>["""Acute miliary tuberculosis, unspecified"""],["""Acute miliary tuberculosis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2,ICD10:A22.2,ICD10_CM:A22.2</t>
+          <t>2,ICD10_CM:A19.9,ICD10:A19.9</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>["""Gastrointestinal anthrax"""],["""Gastrointestinal anthrax"""]</t>
+          <t>["""Miliary tuberculosis, unspecified"""],["""Miliary tuberculosis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2,ICD10:A22.7,ICD10_CM:A22.7</t>
+          <t>2,ICD10:A20.0,ICD10_CM:A20.0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>["""Anthrax sepsis"""],["""Anthrax sepsis"""]</t>
+          <t>["""Bubonic plague"""],["""Bubonic plague"""]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2,ICD10:A22.9,ICD10_CM:A22.9</t>
+          <t>2,ICD10_CM:A20.1,ICD10:A20.1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>["""Anthrax, unspecified"""],["""Anthrax, unspecified"""]</t>
+          <t>["""Cellulocutaneous plague"""],["""Cellulocutaneous plague"""]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2,ICD10:A23.8,ICD10_CM:A23</t>
+          <t>2,ICD10_CM:A20.2,ICD10:A20.2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>["""Other brucellosis"""],["""Brucellosis"""]</t>
+          <t>["""Pneumonic plague"""],["""Pneumonic plague"""]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2,ICD10:A23.0,ICD10_CM:A23.0</t>
+          <t>2,ICD10_CM:A20.3,ICD10:A20.3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>["""Brucellosis due to Brucella melitensis"""],["""Brucellosis due to Brucella melitensis"""]</t>
+          <t>["""Plague meningitis"""],["""Plague meningitis"""]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A23.1,ICD10:A23.1</t>
+          <t>2,ICD10_CM:A20.9,ICD10:A20.9</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>["""Brucellosis due to Brucella abortus"""],["""Brucellosis due to Brucella abortus"""]</t>
+          <t>["""Plague, unspecified"""],["""Plague, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2,ICD10_CM:A23.2,ICD10:A23.2</t>
+          <t>2,ICD10_CM:A22.2,ICD10:A22.2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>["""Brucellosis due to Brucella suis"""],["""Brucellosis due to Brucella suis"""]</t>
+          <t>["""Gastrointestinal anthrax"""],["""Gastrointestinal anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2,ICD10:A23.3,ICD10_CM:A23.3</t>
+          <t>2,ICD10:A22.7,ICD10_CM:A22.7</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>["""Brucellosis due to Brucella canis"""],["""Brucellosis due to Brucella canis"""]</t>
+          <t>["""Anthrax sepsis"""],["""Anthrax sepsis"""]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2,ICD10:A15,ICD10:A16</t>
+          <t>2,ICD10_CM:A22.9,ICD10:A22.9</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>["""Respiratory tuberculosis, bacteriologically and histologically confirmed"""],["""Respiratory tuberculosis, not confirmed bacteriologically or histologically"""]</t>
+          <t>["""Anthrax, unspecified"""],["""Anthrax, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DOID:0001816</t>
+          <t>2,ICD10_CM:A23,ICD10:A23.8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>["""angiosarcoma""","""hemangiosarcoma"""]</t>
+          <t>["""Brucellosis"""],["""Other brucellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>DOID:0002116</t>
+          <t>2,ICD10_CM:A23.0,ICD10:A23.0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>["""pterygium""","""surfer's eye"""]</t>
+          <t>["""Brucellosis due to Brucella melitensis"""],["""Brucellosis due to Brucella melitensis"""]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DOID:0014667</t>
+          <t>2,ICD10:A23.1,ICD10_CM:A23.1</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>["""disease of metabolism""","""metabolic disease"""]</t>
+          <t>["""Brucellosis due to Brucella abortus"""],["""Brucellosis due to Brucella abortus"""]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DOID:0040001</t>
+          <t>2,ICD10_CM:A23.2,ICD10:A23.2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>["""shrimp allergy"""]</t>
+          <t>["""Brucellosis due to Brucella suis"""],["""Brucellosis due to Brucella suis"""]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DOID:0040002</t>
+          <t>2,ICD10:A23.3,ICD10_CM:A23.3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>["""ASA allergy""","""acetylsalicylic acid allergy""","""aspirin allergy"""]</t>
+          <t>["""Brucellosis due to Brucella canis"""],["""Brucellosis due to Brucella canis"""]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DOID:0040003</t>
+          <t>2,ICD10:A16,ICD10:A15</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>["""benzyl benicillin allergy""","""penicillin G allergy""","""benzylpenicillin allergy"""]</t>
+          <t>["""Respiratory tuberculosis, not confirmed bacteriologically or histologically"""],["""Respiratory tuberculosis, bacteriologically and histologically confirmed"""]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DOID:0040004</t>
+          <t>DOID:0001816</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>["""amoxicillin allergy"""]</t>
+          <t>["""hemangiosarcoma""","""angiosarcoma"""]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DOID:0040005</t>
+          <t>DOID:0002116</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>["""rocephin allergy""","""ceftriaxone allergy"""]</t>
+          <t>["""surfer's eye""","""pterygium"""]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DOID:0040006</t>
+          <t>DOID:0014667</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>["""Tegretol allergy""","""carbamazepen allergy""","""carbamazepine allergy"""]</t>
+          <t>["""metabolic disease""","""disease of metabolism"""]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DOID:0040007</t>
+          <t>DOID:0040001</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>["""ABC allergy""","""abacavir allergy"""]</t>
+          <t>["""shrimp allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DOID:0040008</t>
+          <t>DOID:0040002</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>["""isoniazide allergy""","""isonicotinylhydrazide allergy""","""INH allergy"""]</t>
+          <t>["""ASA allergy""","""acetylsalicylic acid allergy""","""aspirin allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DOID:0040009</t>
+          <t>DOID:0040003</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>["""xylocaine allergy""","""lignocaine allergy""","""Lidoderm allergy""","""lidocaine allergy"""]</t>
+          <t>["""benzylpenicillin allergy""","""benzyl benicillin allergy""","""penicillin G allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DOID:0040010</t>
+          <t>DOID:0040004</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>["""mepivacaine allergy""","""Polocaine allergy""","""Carbocaine allergy"""]</t>
+          <t>["""amoxicillin allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>DOID:0040011</t>
+          <t>DOID:0040005</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>["""Luminal allergy""","""phenobarbitol allergy""","""phenobarbital allergy""","""phenobarbitone allergy"""]</t>
+          <t>["""ceftriaxone allergy""","""rocephin allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DOID:0040012</t>
+          <t>DOID:0040006</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>["""phenytoin allergy""","""Dilantin allergy"""]</t>
+          <t>["""Tegretol allergy""","""carbamazepine allergy""","""carbamazepen allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DOID:0040013</t>
+          <t>DOID:0040007</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>["""Zantac allergy""","""ranitidine allergy"""]</t>
+          <t>["""abacavir allergy""","""ABC allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DOID:0040014</t>
+          <t>DOID:0040008</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>["""corticosteroid allergy"""]</t>
+          <t>["""INH allergy""","""isoniazide allergy""","""isonicotinylhydrazide allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>DOID:0040015</t>
+          <t>DOID:0040009</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>["""sulfonamide allergy"""]</t>
+          <t>["""xylocaine allergy""","""Lidoderm allergy""","""lignocaine allergy""","""lidocaine allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>DOID:0040016</t>
+          <t>DOID:0040010</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>["""SMZ allergy""","""sulphamethoxazole allergy""","""SMX allergy""","""sulfamethoxazole allergy"""]</t>
+          <t>["""mepivacaine allergy""","""Carbocaine allergy""","""Polocaine allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DOID:0040017</t>
+          <t>DOID:0040011</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>["""suprofen allergy""","""Profenal allergy"""]</t>
+          <t>["""phenobarbitol allergy""","""phenobarbitone allergy""","""Luminal allergy""","""phenobarbital allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DOID:0040018</t>
+          <t>DOID:0040012</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>["""penthiobarbital allergy""","""pentothiobarbital allergy""","""thiopental allergy"""]</t>
+          <t>["""phenytoin allergy""","""Dilantin allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DOID:0040019</t>
+          <t>DOID:0040013</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>["""D-mannitol allergy""","""mannitol allergy"""]</t>
+          <t>["""ranitidine allergy""","""Zantac allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DOID:0040020</t>
+          <t>DOID:0040014</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>["""cefotaxime allergy"""]</t>
+          <t>["""corticosteroid allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DOID:0040021</t>
+          <t>DOID:0040015</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>["""cephalosporin allergy"""]</t>
+          <t>["""sulfonamide allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DOID:0040022</t>
+          <t>DOID:0040016</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>["""Flavoquine allergy""","""amodiaquine allergy""","""Camoquin allergy"""]</t>
+          <t>["""sulfamethoxazole allergy""","""SMZ allergy""","""SMX allergy""","""sulphamethoxazole allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DOID:0040023</t>
+          <t>DOID:0040017</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>["""Ceclor allergy""","""cephaclor allergy""","""cefaclor allergy"""]</t>
+          <t>["""Profenal allergy""","""suprofen allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>DOID:0040024</t>
+          <t>DOID:0040018</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>["""Fortaz allergy""","""Tazicef allergy""","""ceftazidime allergy"""]</t>
+          <t>["""pentothiobarbital allergy""","""penthiobarbital allergy""","""thiopental allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>DOID:0040025</t>
+          <t>DOID:0040019</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>["""cefuroxime allergy""","""cephuroxime allergy""","""Zinacef allergy"""]</t>
+          <t>["""mannitol allergy""","""D-mannitol allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DOID:0040026</t>
+          <t>DOID:0040020</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>["""chlorhexidine allergy"""]</t>
+          <t>["""cefotaxime allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DOID:0040027</t>
+          <t>DOID:0040021</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>["""cytophosphane allergy""","""cyclophosphamide allergy"""]</t>
+          <t>["""cephalosporin allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DOID:0040028</t>
+          <t>DOID:0040022</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>["""dicholine succinate allergy""","""succinocholine allergy""","""succinylcholine allergy""","""sux allergy""","""suxamethonium allergy"""]</t>
+          <t>["""Flavoquine allergy""","""Camoquin allergy""","""amodiaquine allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>DOID:0040029</t>
+          <t>DOID:0040023</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>["""proloprim allergy""","""trimethoprim allergy""","""TMP allergy""","""Primsol allergy"""]</t>
+          <t>["""cefaclor allergy""","""cephaclor allergy""","""Ceclor allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DOID:0040030</t>
+          <t>DOID:0040024</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>["""cefixime allergy"""]</t>
+          <t>["""Fortaz allergy""","""ceftazidime allergy""","""Tazicef allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DOID:0040031</t>
+          <t>DOID:0040025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>["""Voltaren allergy""","""diclofenac allergy"""]</t>
+          <t>["""cefuroxime allergy""","""cephuroxime allergy""","""Zinacef allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DOID:0040032</t>
+          <t>DOID:0040026</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>["""carbapenem allergy"""]</t>
+          <t>["""chlorhexidine allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DOID:0040033</t>
+          <t>DOID:0040027</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>["""piperacillin allergy"""]</t>
+          <t>["""cyclophosphamide allergy""","""cytophosphane allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>DOID:0040034</t>
+          <t>DOID:0040028</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>["""Zemuron allergy""","""Esmeron allergy""","""rocuronium allergy"""]</t>
+          <t>["""suxamethonium allergy""","""dicholine succinate allergy""","""sux allergy""","""succinocholine allergy""","""succinylcholine allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DOID:0040035</t>
+          <t>DOID:0040029</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>["""sulfasalazine allergy"""]</t>
+          <t>["""TMP allergy""","""Primsol allergy""","""trimethoprim allergy""","""proloprim allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>DOID:0040036</t>
+          <t>DOID:0040030</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>["""DTC allergy""","""tubocurarine allergy"""]</t>
+          <t>["""cefixime allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DOID:0040037</t>
+          <t>DOID:0040031</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>["""aztreonam allergy""","""Primbactam allergy""","""Azactam allergy"""]</t>
+          <t>["""diclofenac allergy""","""Voltaren allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DOID:0040038</t>
+          <t>DOID:0040032</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>["""meropenem allergy""","""Merrem allergy"""]</t>
+          <t>["""carbapenem allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DOID:0040040</t>
+          <t>DOID:0040033</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>["""allergic asthma to HMDI""","""allergic asthma to HDI""","""hexamethylene diisocyanate allergic asthma"""]</t>
+          <t>["""piperacillin allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DOID:0040041</t>
+          <t>DOID:0040034</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>["""isocyanates allergic asthma"""]</t>
+          <t>["""Esmeron allergy""","""Zemuron allergy""","""rocuronium allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DOID:0040042</t>
+          <t>DOID:0040035</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>["""diphenylmethane-4,4'-diisocyanate allergic asthma""","""allergic asthma to MDI"""]</t>
+          <t>["""sulfasalazine allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DOID:0040043</t>
+          <t>DOID:0040036</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>["""toluene meta-diisocyanate allergic asthma""","""allergic asthma to TDI"""]</t>
+          <t>["""tubocurarine allergy""","""DTC allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DOID:0040044</t>
+          <t>DOID:0040037</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>["""allergic asthma to MIC""","""methyl isocyanate allergic asthma"""]</t>
+          <t>["""Primbactam allergy""","""aztreonam allergy""","""Azactam allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DOID:0040045</t>
+          <t>DOID:0040038</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>["""nickel allergic asthma""","""allergic asthma to Ni"""]</t>
+          <t>["""meropenem allergy""","""Merrem allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DOID:0040047</t>
+          <t>DOID:0040040</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>["""allergic asthma to TMA""","""trimellitic anhydride allergic asthma"""]</t>
+          <t>["""allergic asthma to HDI""","""hexamethylene diisocyanate allergic asthma""","""allergic asthma to HMDI"""]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DOID:0040048</t>
+          <t>DOID:0040041</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>["""phthalic anhydride allergic asthma"""]</t>
+          <t>["""isocyanates allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DOID:0040049</t>
+          <t>DOID:0040042</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>["""allergic asthma to MA""","""maleic anhydride allergic asthma"""]</t>
+          <t>["""allergic asthma to MDI""","""diphenylmethane-4,4'-diisocyanate allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DOID:0040050</t>
+          <t>DOID:0040043</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>["""tetrachlorophthalic anhydride allergic asthma"""]</t>
+          <t>["""allergic asthma to TDI""","""toluene meta-diisocyanate allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DOID:0040051</t>
+          <t>DOID:0040044</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>["""hexahydrophthalic anhydride allergic asthma""","""allergic asthma to HHPA"""]</t>
+          <t>["""allergic asthma to MIC""","""methyl isocyanate allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DOID:0040052</t>
+          <t>DOID:0040045</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to MDI""","""diphenylmethane-4,4'-diisocyanate allergic contact dermatitis"""]</t>
+          <t>["""nickel allergic asthma""","""allergic asthma to Ni"""]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DOID:0040053</t>
+          <t>DOID:0040047</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>["""cobalt allergic contact dermatitis""","""allergic contact dermatitis to Co"""]</t>
+          <t>["""trimellitic anhydride allergic asthma""","""allergic asthma to TMA"""]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DOID:0040054</t>
+          <t>DOID:0040048</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>["""Co allergic asthma""","""cobalt allergic asthma"""]</t>
+          <t>["""phthalic anhydride allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DOID:0040055</t>
+          <t>DOID:0040049</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>["""palladium allergic contact dermatitis""","""allergic contact dermatitis to Pd"""]</t>
+          <t>["""allergic asthma to MA""","""maleic anhydride allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>DOID:0040056</t>
+          <t>DOID:0040050</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>["""chromium allergic contact dermatitis"""]</t>
+          <t>["""tetrachlorophthalic anhydride allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DOID:0040057</t>
+          <t>DOID:0040051</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to benzoate""","""benzoic acid allergic contact dermatitis"""]</t>
+          <t>["""allergic asthma to HHPA""","""hexahydrophthalic anhydride allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DOID:0040058</t>
+          <t>DOID:0040052</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>["""1,4-phenylenediamine allergic contact dermatitis""","""allergic contact dermatitis to p-phenylenediamine""","""allergic contact dermatitis to PPD"""]</t>
+          <t>["""allergic contact dermatitis to MDI""","""diphenylmethane-4,4'-diisocyanate allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DOID:0040059</t>
+          <t>DOID:0040053</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>["""potassium dichromate allergic contact dermatitis"""]</t>
+          <t>["""cobalt allergic contact dermatitis""","""allergic contact dermatitis to Co"""]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>DOID:0040060</t>
+          <t>DOID:0040054</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>["""ketoprofen photoallergic dermatitis""","""photoallergic dermatitis to Orudis"""]</t>
+          <t>["""cobalt allergic asthma""","""Co allergic asthma"""]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>DOID:0040061</t>
+          <t>DOID:0040055</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>["""respiratory allergy to Reactive Black 5""","""remazole black respiratory allergy"""]</t>
+          <t>["""allergic contact dermatitis to Pd""","""palladium allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DOID:0040062</t>
+          <t>DOID:0040056</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>["""chloramine T respiratory allergy""","""respiratory allergy to Chlorazol""","""respiratory allergy to Chloraseptin""","""respiratory allergy to Trichlorol"""]</t>
+          <t>["""chromium allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DOID:0040063</t>
+          <t>DOID:0040057</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>["""4-vinylcyclohexene dioxide respiratory allergy""","""respiratory allergy to vinyl cyclohexene diepoxide"""]</t>
+          <t>["""benzoic acid allergic contact dermatitis""","""allergic contact dermatitis to benzoate"""]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DOID:0040064</t>
+          <t>DOID:0040058</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to levo-carvone""","""carvone allergic contact dermatitis"""]</t>
+          <t>["""1,4-phenylenediamine allergic contact dermatitis""","""allergic contact dermatitis to p-phenylenediamine""","""allergic contact dermatitis to PPD"""]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DOID:0040065</t>
+          <t>DOID:0040059</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>["""quinidine allergy""","""Kinidin allergy"""]</t>
+          <t>["""potassium dichromate allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DOID:0040066</t>
+          <t>DOID:0040060</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>["""Alkeran allergy""","""melphalan allergy"""]</t>
+          <t>["""photoallergic dermatitis to Orudis""","""ketoprofen photoallergic dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DOID:0040067</t>
+          <t>DOID:0040061</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to neomycin sulphate""","""neomycin sulfate allergic contact dermatitis"""]</t>
+          <t>["""remazole black respiratory allergy""","""respiratory allergy to Reactive Black 5"""]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DOID:0040068</t>
+          <t>DOID:0040062</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to PTBP""","""allergic contact dermatitis to butylphen""","""4-tert-butylphenol allergic contact dermatitis"""]</t>
+          <t>["""respiratory allergy to Trichlorol""","""respiratory allergy to Chloraseptin""","""chloramine T respiratory allergy""","""respiratory allergy to Chlorazol"""]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DOID:0040069</t>
+          <t>DOID:0040063</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to DNCB""","""allergic contact dermatitis to dinitrochlorobenzene""","""1-chloro-2,4-dinitrobenzene allergic contact dermatitis"""]</t>
+          <t>["""4-vinylcyclohexene dioxide respiratory allergy""","""respiratory allergy to vinyl cyclohexene diepoxide"""]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>DOID:0040070</t>
+          <t>DOID:0040064</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>["""trimethoprim/sulfamethoxazole allergy""","""co-trimoxazole allergy""","""TMP/SMX allergy""","""Bactrim allergy""","""cotrimoxazol allergy"""]</t>
+          <t>["""carvone allergic contact dermatitis""","""allergic contact dermatitis to levo-carvone"""]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DOID:0040071</t>
+          <t>DOID:0040065</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>["""sodium aurothiomalate allergy""","""gold sodium thiomalate allergy"""]</t>
+          <t>["""quinidine allergy""","""Kinidin allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DOID:0040072</t>
+          <t>DOID:0040066</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>["""parthenolide allergic contact dermatitis""","""allergic contact dermatitis to feverfew"""]</t>
+          <t>["""melphalan allergy""","""Alkeran allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DOID:0040073</t>
+          <t>DOID:0040067</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>["""DSCG allergy""","""disodium cromoglycate allergy"""]</t>
+          <t>["""neomycin sulfate allergic contact dermatitis""","""allergic contact dermatitis to neomycin sulphate"""]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DOID:0040074</t>
+          <t>DOID:0040068</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to formalin""","""formaldehyde allergic contact dermatitis"""]</t>
+          <t>["""allergic contact dermatitis to PTBP""","""4-tert-butylphenol allergic contact dermatitis""","""allergic contact dermatitis to butylphen"""]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DOID:0040075</t>
+          <t>DOID:0040069</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to BIT""","""benzo[d]isothiazol-3-one allergic contact dermatitis""","""allergic contact dermatitis to benzisothiazolone"""]</t>
+          <t>["""1-chloro-2,4-dinitrobenzene allergic contact dermatitis""","""allergic contact dermatitis to dinitrochlorobenzene""","""allergic contact dermatitis to DNCB"""]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DOID:0040076</t>
+          <t>DOID:0040070</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>["""phthalyl group allergy""","""phthalyl allergy"""]</t>
+          <t>["""trimethoprim/sulfamethoxazole allergy""","""TMP/SMX allergy""","""co-trimoxazole allergy""","""cotrimoxazol allergy""","""Bactrim allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DOID:0040077</t>
+          <t>DOID:0040071</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>["""alcuronium bromide allergy"""]</t>
+          <t>["""sodium aurothiomalate allergy""","""gold sodium thiomalate allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DOID:0040078</t>
+          <t>DOID:0040072</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>["""gallamine allergy"""]</t>
+          <t>["""allergic contact dermatitis to feverfew""","""parthenolide allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>DOID:0040079</t>
+          <t>DOID:0040073</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>["""allergic contact dermatitis to DNP""","""2,4-dinitrophenyl allergic contact dermatitis"""]</t>
+          <t>["""DSCG allergy""","""disodium cromoglycate allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DOID:0040080</t>
+          <t>DOID:0040074</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>["""patent blue V allergy"""]</t>
+          <t>["""allergic contact dermatitis to formalin""","""formaldehyde allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DOID:0040081</t>
+          <t>DOID:0040075</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>["""acid anhydride respiratory allergy"""]</t>
+          <t>["""allergic contact dermatitis to benzisothiazolone""","""allergic contact dermatitis to BIT""","""benzo[d]isothiazol-3-one allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DOID:0040082</t>
+          <t>DOID:0040076</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>["""oxirane allergy""","""ethylene oxide allergy""","""ETO allergy"""]</t>
+          <t>["""phthalyl group allergy""","""phthalyl allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DOID:0040083</t>
+          <t>DOID:0040077</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>["""Chlamydia pneumonia"""]</t>
+          <t>["""alcuronium bromide allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DOID:0040084</t>
+          <t>DOID:0040078</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>["""Streptococcus pneumonia"""]</t>
+          <t>["""gallamine allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DOID:0040085</t>
+          <t>DOID:0040079</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>["""bacterial sepsis"""]</t>
+          <t>["""2,4-dinitrophenyl allergic contact dermatitis""","""allergic contact dermatitis to DNP"""]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DOID:0040086</t>
+          <t>DOID:0040080</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>["""PVAN""","""polyomavirus associated nephropathy""","""Polyomavirus-associated Nephropathy"""]</t>
+          <t>["""patent blue V allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>DOID:0040087</t>
+          <t>DOID:0040081</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>["""autoimmune peripheral neuropathy"""]</t>
+          <t>["""acid anhydride respiratory allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DOID:0040088</t>
+          <t>DOID:0040082</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>["""autoimmune uveitis"""]</t>
+          <t>["""oxirane allergy""","""ethylene oxide allergy""","""ETO allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DOID:0040089</t>
+          <t>DOID:0040083</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>["""autoimmune optic neuritis"""]</t>
+          <t>["""Chlamydia pneumonia"""]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DOID:0040090</t>
+          <t>DOID:0040084</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>["""autoimmune gastritis"""]</t>
+          <t>["""Streptococcus pneumonia"""]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DOID:0040091</t>
+          <t>DOID:0040085</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>["""autoimmune pancreatitis"""]</t>
+          <t>["""bacterial sepsis"""]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DOID:0040092</t>
+          <t>DOID:0040086</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>["""juvenile ankylosing spondylitis"""]</t>
+          <t>["""Polyomavirus-associated Nephropathy""","""PVAN""","""polyomavirus associated nephropathy"""]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DOID:0040093</t>
+          <t>DOID:0040087</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>["""DIL""","""drug-induced lupus erythematosus""","""DILE"""]</t>
+          <t>["""autoimmune peripheral neuropathy"""]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DOID:0040094</t>
+          <t>DOID:0040088</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>["""autoimmune glomerulonephritis"""]</t>
+          <t>["""autoimmune uveitis"""]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DOID:0040095</t>
+          <t>DOID:0040089</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>["""autoimmune cardiomyopathy"""]</t>
+          <t>["""autoimmune optic neuritis"""]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DOID:0040096</t>
+          <t>DOID:0040090</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>["""autoimmune atherosclerosis"""]</t>
+          <t>["""autoimmune gastritis"""]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DOID:0040097</t>
+          <t>DOID:0040091</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>["""autoimmune vasculitis"""]</t>
+          <t>["""autoimmune pancreatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DOID:0040098</t>
+          <t>DOID:0040092</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>["""pemphigus gestationis"""]</t>
+          <t>["""juvenile ankylosing spondylitis"""]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DOID:0040099</t>
+          <t>DOID:0040093</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>["""livedoid vasculitis""","""livedoid vasculopathy"""]</t>
+          <t>["""DILE""","""DIL""","""drug-induced lupus erythematosus"""]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DOID:0040100</t>
+          <t>DOID:0040094</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>["""Hirata disease""","""insulin autoimmune syndrome"""]</t>
+          <t>["""autoimmune glomerulonephritis"""]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DOID:0040101</t>
+          <t>DOID:0040095</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>["""N,N'-diphenylthiourea allergic contact dermatitis""","""neoprene allergy"""]</t>
+          <t>["""autoimmune cardiomyopathy"""]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DOID:0040102</t>
+          <t>DOID:0040096</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>["""N,N'-diethylthiourea allergic contact dermatitis""","""neoprene allergy"""]</t>
+          <t>["""autoimmune atherosclerosis"""]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DOID:0040103</t>
+          <t>DOID:0040097</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>["""cefotiam allergy"""]</t>
+          <t>["""autoimmune vasculitis"""]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ICD10_CM:A01.00</t>
+          <t>DOID:0040098</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>["""Typhoid fever, unspecified"""]</t>
+          <t>["""pemphigus gestationis"""]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ICD10_CM:A01.01</t>
+          <t>DOID:0040099</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>["""Typhoid meningitis"""]</t>
+          <t>["""livedoid vasculopathy""","""livedoid vasculitis"""]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ICD10_CM:A01.02</t>
+          <t>DOID:0040100</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>["""Typhoid fever with heart involvement""","""Typhoid myocarditis""","""Typhoid fever with heart involvementTyphoid endocarditis""","""Typhoid endocarditis"""]</t>
+          <t>["""Hirata disease""","""insulin autoimmune syndrome"""]</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ICD10_CM:A01.03</t>
+          <t>DOID:0040101</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>["""Typhoid pneumonia"""]</t>
+          <t>["""N,N'-diphenylthiourea allergic contact dermatitis""","""neoprene allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ICD10_CM:A01.04</t>
+          <t>DOID:0040102</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>["""Typhoid arthritis"""]</t>
+          <t>["""neoprene allergy""","""N,N'-diethylthiourea allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ICD10_CM:A01.05</t>
+          <t>DOID:0040103</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>["""Typhoid osteomyelitis"""]</t>
+          <t>["""cefotiam allergy"""]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ICD10_CM:A01.09</t>
+          <t>ICD10_CM:A01.00</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>["""Typhoid fever with other complications"""]</t>
+          <t>["""Typhoid fever, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ICD10_CM:A02</t>
+          <t>ICD10_CM:A01.01</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>["""Other salmonella infections"""]</t>
+          <t>["""Typhoid meningitis"""]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ICD10_CM:A02.20</t>
+          <t>ICD10_CM:A01.02</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>["""Localized salmonella infection, unspecified"""]</t>
+          <t>["""Typhoid myocarditis""","""Typhoid fever with heart involvementTyphoid endocarditis""","""Typhoid endocarditis""","""Typhoid fever with heart involvement"""]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ICD10_CM:A02.21</t>
+          <t>ICD10_CM:A01.03</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>["""Salmonella meningitis"""]</t>
+          <t>["""Typhoid pneumonia"""]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ICD10_CM:A02.22</t>
+          <t>ICD10_CM:A01.04</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>["""Salmonella pneumonia"""]</t>
+          <t>["""Typhoid arthritis"""]</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ICD10_CM:A02.23</t>
+          <t>ICD10_CM:A01.05</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>["""Salmonella arthritis"""]</t>
+          <t>["""Typhoid osteomyelitis"""]</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ICD10_CM:A02.24</t>
+          <t>ICD10_CM:A01.09</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>["""Salmonella osteomyelitis"""]</t>
+          <t>["""Typhoid fever with other complications"""]</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ICD10_CM:A02.25</t>
+          <t>ICD10_CM:A02</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>["""Salmonella tubulo-interstitial nephropathy""","""Salmonella pyelonephritis"""]</t>
+          <t>["""Other salmonella infections"""]</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ICD10_CM:A04.3</t>
+          <t>ICD10_CM:A02.20</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>["""Enterohemorrhagic Escherichia coli infection"""]</t>
+          <t>["""Localized salmonella infection, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ICD10_CM:A04.6</t>
+          <t>ICD10_CM:A02.21</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>["""extraintestinal yersiniosis""","""Enteritis due to Yersinia enterocolitica"""]</t>
+          <t>["""Salmonella meningitis"""]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ICD10_CM:A04.7</t>
+          <t>ICD10_CM:A02.22</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>["""Enterocolitis due to Clostridium difficileFoodborne intoxication by Clostridium difficile""","""Enterocolitis due to Clostridium difficile""","""Foodborne intoxication by Clostridium difficile""","""Pseudomembraneous colitis"""]</t>
+          <t>["""Salmonella pneumonia"""]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ICD10_CM:A04.71</t>
+          <t>ICD10_CM:A02.23</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>["""Enterocolitis due to Clostridium difficile, recurrent"""]</t>
+          <t>["""Salmonella arthritis"""]</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ICD10_CM:A04.72</t>
+          <t>ICD10_CM:A02.24</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>["""Enterocolitis due to Clostridium difficile, not specified as recurrent"""]</t>
+          <t>["""Salmonella osteomyelitis"""]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ICD10_CM:A05</t>
+          <t>ICD10_CM:A02.25</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>["""listeriosis""","""Escherichia coli infection""","""Other bacterial foodborne intoxications, not elsewhere classified""","""Clostridium difficile foodborne intoxication and infection"""]</t>
+          <t>["""Salmonella tubulo-interstitial nephropathy""","""Salmonella pyelonephritis"""]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ICD10_CM:A05.1</t>
+          <t>ICD10_CM:A04.3</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>["""Classical foodborne intoxication due to Clostridium botulinuminfant botulism""","""Botulism food poisoning""","""Botulism NOS"""]</t>
+          <t>["""Enterohemorrhagic Escherichia coli infection"""]</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ICD10_CM:A05.2</t>
+          <t>ICD10_CM:A04.6</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>["""Enteritis necroticans""","""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Enteritis necroticansPig-bel""","""Pig-bel"""]</t>
+          <t>["""Enteritis due to Yersinia enterocolitica""","""extraintestinal yersiniosis"""]</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ICD10_CM:A05.5</t>
+          <t>ICD10_CM:A04.7</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>["""Foodborne Vibrio vulnificus intoxication"""]</t>
+          <t>["""Pseudomembraneous colitis""","""Enterocolitis due to Clostridium difficileFoodborne intoxication by Clostridium difficile""","""Enterocolitis due to Clostridium difficile""","""Foodborne intoxication by Clostridium difficile"""]</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06</t>
+          <t>ICD10_CM:A04.71</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>["""Naegleriasis""","""Amebiasis""","""acanthamebiasisother protozoal intestinal diseases"""]</t>
+          <t>["""Enterocolitis due to Clostridium difficile, recurrent"""]</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.0</t>
+          <t>ICD10_CM:A04.72</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>["""Intestinal amebiasis NOSAcute amebic dysentery""","""Acute amebic dysentery""","""Acute amebiasis""","""Intestinal amebiasis NOS"""]</t>
+          <t>["""Enterocolitis due to Clostridium difficile, not specified as recurrent"""]</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.1</t>
+          <t>ICD10_CM:A05</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>["""Chronic intestinal amebiasis"""]</t>
+          <t>["""Other bacterial foodborne intoxications, not elsewhere classified""","""Escherichia coli infection""","""Clostridium difficile foodborne intoxication and infection""","""listeriosis"""]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.2</t>
+          <t>ICD10_CM:A05.1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>["""Amebic nondysenteric colitis"""]</t>
+          <t>["""Botulism food poisoning""","""Classical foodborne intoxication due to Clostridium botulinuminfant botulism""","""Botulism NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.3</t>
+          <t>ICD10_CM:A05.2</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>["""Ameboma of intestine""","""Ameboma NOS"""]</t>
+          <t>["""Pig-bel""","""Enteritis necroticansPig-bel""","""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Enteritis necroticans"""]</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.4</t>
+          <t>ICD10_CM:A05.5</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>["""Amebic liver abscess""","""Hepatic amebiasis"""]</t>
+          <t>["""Foodborne Vibrio vulnificus intoxication"""]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.5</t>
+          <t>ICD10_CM:A06</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>["""Amebic lung abscess""","""Amebic abscess of lung (and liver)"""]</t>
+          <t>["""acanthamebiasisother protozoal intestinal diseases""","""Amebiasis""","""Naegleriasis"""]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.6</t>
+          <t>ICD10_CM:A06.0</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>["""Amebic abscess of brain (and liver) (and lung)""","""Amebic brain abscess"""]</t>
+          <t>["""Intestinal amebiasis NOS""","""Intestinal amebiasis NOSAcute amebic dysentery""","""Acute amebic dysentery""","""Acute amebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.7</t>
+          <t>ICD10_CM:A06.1</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>["""Cutaneous amebiasis"""]</t>
+          <t>["""Chronic intestinal amebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.8</t>
+          <t>ICD10_CM:A06.2</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>["""Amebic infection of other sites"""]</t>
+          <t>["""Amebic nondysenteric colitis"""]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.81</t>
+          <t>ICD10_CM:A06.3</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>["""Amebic cystitis"""]</t>
+          <t>["""Ameboma NOS""","""Ameboma of intestine"""]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.82</t>
+          <t>ICD10_CM:A06.4</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>["""Amebic vesiculitis""","""Amebic vulvovaginitisOther amebic genitourinary infections""","""Other amebic genitourinary infections""","""Amebic vulvovaginitis"""]</t>
+          <t>["""Amebic liver abscess""","""Hepatic amebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.89</t>
+          <t>ICD10_CM:A06.5</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>["""Amebic splenic abscess""","""Amebic appendicitisAmebic splenic abscess""","""Other amebic infections""","""Amebic appendicitis"""]</t>
+          <t>["""Amebic abscess of lung (and liver)""","""Amebic lung abscess"""]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ICD10_CM:A06.9</t>
+          <t>ICD10_CM:A06.6</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>["""Amebiasis, unspecified"""]</t>
+          <t>["""Amebic brain abscess""","""Amebic abscess of brain (and liver) (and lung)"""]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ICD10_CM:A07.3</t>
+          <t>ICD10_CM:A06.7</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>["""Isosporosis""","""Intestinal coccidiosisInfection due to Isospora belli and Isospora hominis""","""Intestinal coccidiosis""","""Isosporiasis""","""Infection due to Isospora belli and Isospora hominis"""]</t>
+          <t>["""Cutaneous amebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ICD10_CM:A07.4</t>
+          <t>ICD10_CM:A06.8</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>["""Cyclosporiasis"""]</t>
+          <t>["""Amebic infection of other sites"""]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ICD10_CM:A07.8</t>
+          <t>ICD10_CM:A06.81</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>["""Intestinal microsporidiosisIntestinal trichomoniasis""","""Intestinal microsporidiosis""","""Intestinal trichomoniasis""","""Other specified protozoal intestinal diseases"""]</t>
+          <t>["""Amebic cystitis"""]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ICD10_CM:A07.9</t>
+          <t>ICD10_CM:A06.82</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>["""Protozoal colitis""","""Protozoal intestinal disease, unspecified""","""Protozoal diarrheaProtozoal colitis""","""Protozoal diarrhea""","""Flagellate diarrhea"""]</t>
+          <t>["""Amebic vulvovaginitisOther amebic genitourinary infections""","""Amebic vulvovaginitis""","""Amebic vesiculitis""","""Other amebic genitourinary infections"""]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08</t>
+          <t>ICD10_CM:A06.89</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>["""influenza with involvement of gastrointestinal tract""","""Viral and other specified intestinal infections"""]</t>
+          <t>["""Other amebic infections""","""Amebic splenic abscess""","""Amebic appendicitisAmebic splenic abscess""","""Amebic appendicitis"""]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08.1</t>
+          <t>ICD10_CM:A06.9</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>["""Acute gastroenteropathy due to Norwalk agent and other small round viruses"""]</t>
+          <t>["""Amebiasis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08.11</t>
+          <t>ICD10_CM:A07.3</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>["""Acute gastroenteropathy due to Norwalk agent""","""Acute gastroenteropathy due to Norwalk-like agentAcute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norwalk-like agent"""]</t>
+          <t>["""Infection due to Isospora belli and Isospora hominis""","""Intestinal coccidiosisInfection due to Isospora belli and Isospora hominis""","""Isosporiasis""","""Intestinal coccidiosis""","""Isosporosis"""]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08.19</t>
+          <t>ICD10_CM:A07.4</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>["""Acute gastroenteropathy due to other small round viruses""","""Acute gastroenteropathy due to small round virus [SRV] NOS"""]</t>
+          <t>["""Cyclosporiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08.31</t>
+          <t>ICD10_CM:A07.8</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>["""Calicivirus enteritis"""]</t>
+          <t>["""Intestinal microsporidiosisIntestinal trichomoniasis""","""Other specified protozoal intestinal diseases""","""Intestinal microsporidiosis""","""Intestinal trichomoniasis"""]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08.32</t>
+          <t>ICD10_CM:A07.9</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>["""Astrovirus enteritis"""]</t>
+          <t>["""Protozoal intestinal disease, unspecified""","""Protozoal colitis""","""Protozoal diarrheaProtozoal colitis""","""Protozoal diarrhea""","""Flagellate diarrhea"""]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08.39</t>
+          <t>ICD10_CM:A08</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>["""Enterovirus enteritis NEC""","""Torovirus enteritis""","""Other viral enteritis""","""Torovirus enteritisEnterovirus enteritis NEC"""]</t>
+          <t>["""Viral and other specified intestinal infections""","""influenza with involvement of gastrointestinal tract"""]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ICD10_CM:A08.4</t>
+          <t>ICD10_CM:A08.1</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>["""Viral gastroenteritis NOS""","""Viral gastroenteropathy NOS""","""Viral enteritis NOS""","""Viral gastroenteritis NOSViral gastroenteropathy NOS""","""Viral intestinal infection, unspecified"""]</t>
+          <t>["""Acute gastroenteropathy due to Norwalk agent and other small round viruses"""]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ICD10_CM:A09</t>
+          <t>ICD10_CM:A08.11</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>["""diarrhea NOS""","""Infectious enteritis NOS""","""Infectious gastroenteritis and colitis, unspecified""","""Infectious colitis NOS""","""Infectious gastroenteritis NOScolitis NOS"""]</t>
+          <t>["""Acute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norwalk agent""","""Acute gastroenteropathy due to Norwalk-like agentAcute gastroenteropathy due to Norovirus""","""Acute gastroenteropathy due to Norwalk-like agent"""]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ICD10_CM:A15</t>
+          <t>ICD10_CM:A08.19</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>["""Respiratory tuberculosis"""]</t>
+          <t>["""Acute gastroenteropathy due to small round virus [SRV] NOS""","""Acute gastroenteropathy due to other small round viruses"""]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ICD10_CM:A15.0</t>
+          <t>ICD10_CM:A08.31</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung""","""Tuberculous fibrosis of lung""","""Tuberculous bronchiectasis""","""Tuberculous pneumothorax""","""Tuberculous bronchiectasisTuberculous fibrosis of lung"""]</t>
+          <t>["""Calicivirus enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ICD10_CM:A15.5</t>
+          <t>ICD10_CM:A08.32</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of larynx, trachea and bronchus""","""Tuberculosis of glottis""","""Tuberculosis of bronchus""","""Tuberculosis of glottisTuberculosis of larynx""","""Tuberculosis of larynx"""]</t>
+          <t>["""Astrovirus enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ICD10_CM:A15.7</t>
+          <t>ICD10_CM:A08.39</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>["""Primary respiratory tuberculosis"""]</t>
+          <t>["""Torovirus enteritisEnterovirus enteritis NEC""","""Enterovirus enteritis NEC""","""Other viral enteritis""","""Torovirus enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ICD10_CM:A15.8</t>
+          <t>ICD10_CM:A08.4</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>["""Nasopharyngeal tuberculosis""","""Tuberculosis of sinus [any nasal]""","""Tuberculosis of nose""","""Other respiratory tuberculosis""","""Nasopharyngeal tuberculosisTuberculosis of nose"""]</t>
+          <t>["""Viral gastroenteropathy NOS""","""Viral enteritis NOS""","""Viral gastroenteritis NOS""","""Viral intestinal infection, unspecified""","""Viral gastroenteritis NOSViral gastroenteropathy NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ICD10_CM:A15.9</t>
+          <t>ICD10_CM:A09</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>["""Respiratory tuberculosis unspecified"""]</t>
+          <t>["""Infectious enteritis NOS""","""diarrhea NOS""","""Infectious gastroenteritis and colitis, unspecified""","""Infectious colitis NOS""","""Infectious gastroenteritis NOScolitis NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ICD10_CM:A17.81</t>
+          <t>ICD10_CM:A15</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>["""Tuberculous abscess of brain and spinal cord""","""Tuberculoma of brain and spinal cord"""]</t>
+          <t>["""Respiratory tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ICD10_CM:A17.82</t>
+          <t>ICD10_CM:A15.0</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>["""Tuberculous meningoencephalitis""","""Tuberculous myelitis"""]</t>
+          <t>["""Tuberculous fibrosis of lung""","""Tuberculous bronchiectasis""","""Tuberculous bronchiectasisTuberculous fibrosis of lung""","""Tuberculous pneumothorax""","""Tuberculosis of lung"""]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ICD10_CM:A17.83</t>
+          <t>ICD10_CM:A15.5</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>["""Tuberculous neuritis""","""Tuberculous mononeuropathy"""]</t>
+          <t>["""Tuberculosis of bronchus""","""Tuberculosis of larynx""","""Tuberculosis of larynx, trachea and bronchus""","""Tuberculosis of glottisTuberculosis of larynx""","""Tuberculosis of glottis"""]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ICD10_CM:A17.89</t>
+          <t>ICD10_CM:A15.7</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>["""Other tuberculosis of nervous system""","""Tuberculous polyneuropathy"""]</t>
+          <t>["""Primary respiratory tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ICD10_CM:A17.9</t>
+          <t>ICD10_CM:A15.8</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of nervous system, unspecified"""]</t>
+          <t>["""Nasopharyngeal tuberculosisTuberculosis of nose""","""Other respiratory tuberculosis""","""Tuberculosis of sinus [any nasal]""","""Tuberculosis of nose""","""Nasopharyngeal tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.0</t>
+          <t>ICD10_CM:A15.9</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of bones and joints"""]</t>
+          <t>["""Respiratory tuberculosis unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.01</t>
+          <t>ICD10_CM:A17.81</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>["""Tuberculous spondylitis""","""Tuberculous arthritisTuberculous spondylitis""","""Tuberculous arthritis""","""Tuberculosis of spine""","""Tuberculous osteomyelitis of spine"""]</t>
+          <t>["""Tuberculous abscess of brain and spinal cord""","""Tuberculoma of brain and spinal cord"""]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.02</t>
+          <t>ICD10_CM:A17.82</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of hip (joint)""","""Tuberculous arthritis of other joints""","""Tuberculosis of knee (joint)Tuberculous arthritis of other joints""","""Tuberculosis of knee (joint)"""]</t>
+          <t>["""Tuberculous myelitis""","""Tuberculous meningoencephalitis"""]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.09</t>
+          <t>ICD10_CM:A17.83</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>["""Tuberculous synovitisTuberculous myositis""","""Other musculoskeletal tuberculosis""","""Tuberculous synovitis""","""Tuberculous myositis"""]</t>
+          <t>["""Tuberculous mononeuropathy""","""Tuberculous neuritis"""]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.1</t>
+          <t>ICD10_CM:A17.89</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of genitourinary system"""]</t>
+          <t>["""Tuberculous polyneuropathy""","""Other tuberculosis of nervous system"""]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.10</t>
+          <t>ICD10_CM:A17.9</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of genitourinary system, unspecified"""]</t>
+          <t>["""Tuberculosis of nervous system, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.11</t>
+          <t>ICD10_CM:A18.0</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of kidney and ureter"""]</t>
+          <t>["""Tuberculosis of bones and joints"""]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.12</t>
+          <t>ICD10_CM:A18.01</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of bladder"""]</t>
+          <t>["""Tuberculous arthritis""","""Tuberculous spondylitis""","""Tuberculosis of spine""","""Tuberculous arthritisTuberculous spondylitis""","""Tuberculous osteomyelitis of spine"""]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.13</t>
+          <t>ICD10_CM:A18.02</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other urinary organs""","""Tuberculous urethritis"""]</t>
+          <t>["""Tuberculous arthritis of other joints""","""Tuberculosis of knee (joint)""","""Tuberculosis of hip (joint)""","""Tuberculosis of knee (joint)Tuberculous arthritis of other joints"""]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.14</t>
+          <t>ICD10_CM:A18.09</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of prostate"""]</t>
+          <t>["""Tuberculous myositis""","""Tuberculous synovitis""","""Tuberculous synovitisTuberculous myositis""","""Other musculoskeletal tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.15</t>
+          <t>ICD10_CM:A18.1</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other male genital organs"""]</t>
+          <t>["""Tuberculosis of genitourinary system"""]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.16</t>
+          <t>ICD10_CM:A18.10</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of cervix"""]</t>
+          <t>["""Tuberculosis of genitourinary system, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.17</t>
+          <t>ICD10_CM:A18.11</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>["""Tuberculous oophoritis and salpingitis""","""Tuberculous female pelvic inflammatory disease""","""Tuberculous female pelvic inflammatory diseaseTuberculous oophoritis and salpingitis""","""Tuberculous endometritis"""]</t>
+          <t>["""Tuberculosis of kidney and ureter"""]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.18</t>
+          <t>ICD10_CM:A18.12</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>["""Tuberculous ulceration of vulva""","""Tuberculosis of other female genital organs"""]</t>
+          <t>["""Tuberculosis of bladder"""]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.3</t>
+          <t>ICD10_CM:A18.13</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of intestines, peritoneum and mesenteric glands"""]</t>
+          <t>["""Tuberculosis of other urinary organs""","""Tuberculous urethritis"""]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.31</t>
+          <t>ICD10_CM:A18.14</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>["""Tuberculous peritonitis""","""Tuberculous ascites"""]</t>
+          <t>["""Tuberculosis of prostate"""]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.39</t>
+          <t>ICD10_CM:A18.15</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of mesenteric glandsTuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of mesenteric glands""","""Retroperitoneal tuberculosis"""]</t>
+          <t>["""Tuberculosis of other male genital organs"""]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.50</t>
+          <t>ICD10_CM:A18.16</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of eye, unspecified"""]</t>
+          <t>["""Tuberculosis of cervix"""]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.51</t>
+          <t>ICD10_CM:A18.17</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>["""Tuberculous episcleritis"""]</t>
+          <t>["""Tuberculous female pelvic inflammatory disease""","""Tuberculous oophoritis and salpingitis""","""Tuberculous female pelvic inflammatory diseaseTuberculous oophoritis and salpingitis""","""Tuberculous endometritis"""]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.52</t>
+          <t>ICD10_CM:A18.18</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>["""Tuberculous interstitial keratitis""","""Tuberculous keratitisTuberculous keratoconjunctivitis (interstitial) (phlyctenular)""","""Tuberculous keratoconjunctivitis (interstitial) (phlyctenular)""","""Tuberculous keratitis"""]</t>
+          <t>["""Tuberculosis of other female genital organs""","""Tuberculous ulceration of vulva"""]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.53</t>
+          <t>ICD10_CM:A18.3</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>["""Tuberculous chorioretinitis"""]</t>
+          <t>["""Tuberculosis of intestines, peritoneum and mesenteric glands"""]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.54</t>
+          <t>ICD10_CM:A18.31</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>["""Tuberculous iridocyclitis"""]</t>
+          <t>["""Tuberculous ascites""","""Tuberculous peritonitis"""]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.59</t>
+          <t>ICD10_CM:A18.39</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>["""Other tuberculosis of eye""","""Tuberculous conjunctivitis"""]</t>
+          <t>["""Tuberculosis of mesenteric glands""","""Tuberculosis of mesenteric glandsTuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of retroperitoneal (lymph glands)""","""Retroperitoneal tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.6</t>
+          <t>ICD10_CM:A18.50</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>["""tuberculosis of external eartuberculous mastoiditis""","""tuberculosis of external ear""","""Tuberculosis of (inner) (middle) ear""","""tuberculous mastoiditis"""]</t>
+          <t>["""Tuberculosis of eye, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.7</t>
+          <t>ICD10_CM:A18.51</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of adrenal glands""","""Tuberculous Addison's disease"""]</t>
+          <t>["""Tuberculous episcleritis"""]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.8</t>
+          <t>ICD10_CM:A18.52</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of other specified organs"""]</t>
+          <t>["""Tuberculous interstitial keratitis""","""Tuberculous keratitis""","""Tuberculous keratitisTuberculous keratoconjunctivitis (interstitial) (phlyctenular)""","""Tuberculous keratoconjunctivitis (interstitial) (phlyctenular)"""]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.81</t>
+          <t>ICD10_CM:A18.53</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of thyroid gland"""]</t>
+          <t>["""Tuberculous chorioretinitis"""]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.82</t>
+          <t>ICD10_CM:A18.54</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of thymus gland""","""Tuberculosis of other endocrine glandsTuberculosis of pituitary gland""","""Tuberculosis of pituitary gland""","""Tuberculosis of other endocrine glands"""]</t>
+          <t>["""Tuberculous iridocyclitis"""]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.83</t>
+          <t>ICD10_CM:A18.59</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>["""tuberculosis of intestine""","""Tuberculosis of digestive tract organs, not elsewhere classified"""]</t>
+          <t>["""Other tuberculosis of eye""","""Tuberculous conjunctivitis"""]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.84</t>
+          <t>ICD10_CM:A18.6</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>["""Tuberculous myocarditisTuberculous endocarditis""","""Tuberculosis of heart""","""Tuberculous pericarditis""","""Tuberculous endocarditis""","""Tuberculous myocarditis"""]</t>
+          <t>["""Tuberculosis of (inner) (middle) ear""","""tuberculosis of external ear""","""tuberculous mastoiditis""","""tuberculosis of external eartuberculous mastoiditis"""]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.85</t>
+          <t>ICD10_CM:A18.7</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of spleen"""]</t>
+          <t>["""Tuberculosis of adrenal glands""","""Tuberculous Addison's disease"""]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ICD10_CM:A18.89</t>
+          <t>ICD10_CM:A18.8</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of muscle""","""Tuberculosis of muscleTuberculous cerebral arteritis""","""Tuberculosis of other sites""","""Tuberculous cerebral arteritis"""]</t>
+          <t>["""Tuberculosis of other specified organs"""]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ICD10_CM:A20</t>
+          <t>ICD10_CM:A18.81</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>["""Plague"""]</t>
+          <t>["""Tuberculosis of thyroid gland"""]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ICD10_CM:A20.7</t>
+          <t>ICD10_CM:A18.82</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>["""Septicemic plague"""]</t>
+          <t>["""Tuberculosis of thymus gland""","""Tuberculosis of pituitary gland""","""Tuberculosis of other endocrine glandsTuberculosis of pituitary gland""","""Tuberculosis of other endocrine glands"""]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ICD10_CM:A20.8</t>
+          <t>ICD10_CM:A18.83</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>["""Abortive plagueOther forms of plague""","""Pestis minor""","""Other forms of plague""","""Abortive plague"""]</t>
+          <t>["""Tuberculosis of digestive tract organs, not elsewhere classified""","""tuberculosis of intestine"""]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21</t>
+          <t>ICD10_CM:A18.84</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>["""Tularemia"""]</t>
+          <t>["""Tuberculosis of heart""","""Tuberculous pericarditis""","""Tuberculous endocarditis""","""Tuberculous myocarditis""","""Tuberculous myocarditisTuberculous endocarditis"""]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.0</t>
+          <t>ICD10_CM:A18.85</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>["""Ulceroglandular tularemia"""]</t>
+          <t>["""Tuberculosis of spleen"""]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.1</t>
+          <t>ICD10_CM:A18.89</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>["""Oculoglandular tularemia""","""Ophthalmic tularemia"""]</t>
+          <t>["""Tuberculous cerebral arteritis""","""Tuberculosis of muscleTuberculous cerebral arteritis""","""Tuberculosis of muscle""","""Tuberculosis of other sites"""]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.2</t>
+          <t>ICD10_CM:A20</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>["""Pulmonary tularemia"""]</t>
+          <t>["""Plague"""]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.3</t>
+          <t>ICD10_CM:A20.7</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>["""Gastrointestinal tularemia""","""Abdominal tularemia"""]</t>
+          <t>["""Septicemic plague"""]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.7</t>
+          <t>ICD10_CM:A20.8</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>["""Generalized tularemia"""]</t>
+          <t>["""Abortive plague""","""Pestis minor""","""Other forms of plague""","""Abortive plagueOther forms of plague"""]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.8</t>
+          <t>ICD10_CM:A21</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>["""Other forms of tularemia"""]</t>
+          <t>["""Tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ICD10_CM:A21.9</t>
+          <t>ICD10_CM:A21.0</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>["""Tularemia, unspecified"""]</t>
+          <t>["""Ulceroglandular tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22</t>
+          <t>ICD10_CM:A21.1</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>["""Anthrax"""]</t>
+          <t>["""Oculoglandular tularemia""","""Ophthalmic tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22.0</t>
+          <t>ICD10_CM:A21.2</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>["""Malignant carbuncle""","""Cutaneous anthrax""","""Malignant pustule""","""Malignant carbuncleCutaneous anthrax"""]</t>
+          <t>["""Pulmonary tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22.1</t>
+          <t>ICD10_CM:A21.3</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>["""Ragpicker's disease""","""Inhalation anthrax""","""Pulmonary anthrax""","""Ragpicker's diseasePulmonary anthrax"""]</t>
+          <t>["""Abdominal tularemia""","""Gastrointestinal tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ICD10_CM:A22.8</t>
+          <t>ICD10_CM:A21.7</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>["""Other forms of anthrax""","""Anthrax meningitis"""]</t>
+          <t>["""Generalized tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ICD10:A02</t>
+          <t>ICD10_CM:A21.8</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>["""infection or foodborne intoxication due to any Salmonella species other than S. typhi and S. paratyphi""","""Other salmonella infections"""]</t>
+          <t>["""Other forms of tularemia"""]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ICD10:A02.2</t>
+          <t>ICD10_CM:A21.9</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>["""Salmonella: renal tubulo-interstitial diseaseN16.0""","""Salmonella: osteomyelitisM90.2""","""Localized salmonella infections""","""Salmonella: meningitisG01""","""Salmonella: pneumoniaJ17.0""","""Salmonella: arthritisM01.3"""]</t>
+          <t>["""Tularemia, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ICD10:A04</t>
+          <t>ICD10_CM:A22</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>["""tuberculous enteritisA18.3""","""Other bacterial intestinal infections""","""foodborne intoxications elsewhere classified"""]</t>
+          <t>["""Anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ICD10:A04.3</t>
+          <t>ICD10_CM:A22.0</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>["""Enterohaemorrhagic Escherichia coli infection"""]</t>
+          <t>["""Malignant pustule""","""Malignant carbuncle""","""Malignant carbuncleCutaneous anthrax""","""Cutaneous anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ICD10:A04.6</t>
+          <t>ICD10_CM:A22.1</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>["""Enteritis due to Yersinia enterocolitica""","""extraintestinal yersiniosisA28.2"""]</t>
+          <t>["""Pulmonary anthrax""","""Ragpicker's disease""","""Ragpicker's diseasePulmonary anthrax""","""Inhalation anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ICD10:A04.7</t>
+          <t>ICD10_CM:A22.8</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>["""Enterocolitis due to Clostridium difficile""","""Foodborne intoxication by Clostridium difficile""","""Pseudomembranous colitis"""]</t>
+          <t>["""Anthrax meningitis""","""Other forms of anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ICD10:A05</t>
+          <t>ICD10:A02</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>["""toxic effect of noxious foodstuffsT61-T62""","""salmonella foodborne intoxication and infectionA02.-""","""Escherichia coli infectionA04.0-A04.4""","""Clostridium difficile foodborne intoxication and infectionA04.7""","""listeriosisA32.-""","""Other bacterial foodborne intoxications, not elsewhere classified"""]</t>
+          <t>["""Other salmonella infections""","""infection or foodborne intoxication due to any Salmonella species other than S. typhi and S. paratyphi"""]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ICD10:A05.1</t>
+          <t>ICD10:A02.2</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>["""Classical foodborne intoxication due to Clostridium botulinum""","""Botulism"""]</t>
+          <t>["""Salmonella: arthritisM01.3""","""Salmonella: meningitisG01""","""Salmonella: renal tubulo-interstitial diseaseN16.0""","""Salmonella: pneumoniaJ17.0""","""Localized salmonella infections""","""Salmonella: osteomyelitisM90.2"""]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ICD10:A05.2</t>
+          <t>ICD10:A04</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>["""Enteritis necroticans""","""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Pig-bel"""]</t>
+          <t>["""Other bacterial intestinal infections""","""foodborne intoxications elsewhere classified""","""tuberculous enteritisA18.3"""]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ICD10:A06</t>
+          <t>ICD10:A04.3</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>["""Amoebiasis""","""infection due to Entamoeba histolytica""","""other protozoal intestinal diseasesA07.-"""]</t>
+          <t>["""Enterohaemorrhagic Escherichia coli infection"""]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ICD10:A06.0</t>
+          <t>ICD10:A04.6</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>["""Intestinal amoebiasis NOS""","""Acute amoebiasis""","""Acute amoebic dysentery"""]</t>
+          <t>["""Enteritis due to Yersinia enterocolitica""","""extraintestinal yersiniosisA28.2"""]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ICD10:A06.1</t>
+          <t>ICD10:A04.7</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>["""Chronic intestinal amoebiasis"""]</t>
+          <t>["""Pseudomembranous colitis""","""Enterocolitis due to Clostridium difficile""","""Foodborne intoxication by Clostridium difficile"""]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ICD10:A06.2</t>
+          <t>ICD10:A05</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>["""Amoebic nondysenteric colitis"""]</t>
+          <t>["""Escherichia coli infectionA04.0-A04.4""","""salmonella foodborne intoxication and infectionA02.-""","""listeriosisA32.-""","""toxic effect of noxious foodstuffsT61-T62""","""Clostridium difficile foodborne intoxication and infectionA04.7""","""Other bacterial foodborne intoxications, not elsewhere classified"""]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ICD10:A06.3</t>
+          <t>ICD10:A05.1</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>["""Amoeboma of intestine""","""Amoeboma NOS"""]</t>
+          <t>["""Botulism""","""Classical foodborne intoxication due to Clostridium botulinum"""]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ICD10:A06.4</t>
+          <t>ICD10:A05.2</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>["""Amoebic liver abscessK77.0""","""Hepatic amoebiasis"""]</t>
+          <t>["""Pig-bel""","""Foodborne Clostridium perfringens [Clostridium welchii] intoxication""","""Enteritis necroticans"""]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ICD10:A06.5</t>
+          <t>ICD10:A06</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>["""Amoebic lung abscessJ99.8""","""Amoebic abscess of lung (and liver)"""]</t>
+          <t>["""Amoebiasis""","""other protozoal intestinal diseasesA07.-""","""infection due to Entamoeba histolytica"""]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ICD10:A06.6</t>
+          <t>ICD10:A06.0</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>["""Amoebic brain abscessG07""","""Amoebic abscess of brain (and liver)(and lung)"""]</t>
+          <t>["""Acute amoebiasis""","""Acute amoebic dysentery""","""Intestinal amoebiasis NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ICD10:A06.7</t>
+          <t>ICD10:A06.1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>["""Cutaneous amoebiasis"""]</t>
+          <t>["""Chronic intestinal amoebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ICD10:A06.8</t>
+          <t>ICD10:A06.2</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>["""Amoebic: appendicitis""","""Amoebic: balanitisN51.2""","""Amoebic infection of other sites"""]</t>
+          <t>["""Amoebic nondysenteric colitis"""]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ICD10:A06.9</t>
+          <t>ICD10:A06.3</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>["""Amoebiasis, unspecified"""]</t>
+          <t>["""Amoeboma NOS""","""Amoeboma of intestine"""]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ICD10:A07.3</t>
+          <t>ICD10:A06.4</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>["""Isosporosis""","""Intestinal coccidiosis""","""Isosporiasis""","""Infection due to Isospora belli and Isospora hominis"""]</t>
+          <t>["""Amoebic liver abscessK77.0""","""Hepatic amoebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ICD10:A07.8</t>
+          <t>ICD10:A06.5</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>["""Sarcosporidiosis""","""Other specified protozoal intestinal diseases""","""Intestinal trichomoniasis""","""Sarcocystosis"""]</t>
+          <t>["""Amoebic lung abscessJ99.8""","""Amoebic abscess of lung (and liver)"""]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ICD10:A07.9</t>
+          <t>ICD10:A06.6</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>["""Protozoal: diarrhoea""","""Flagellate diarrhoea""","""Protozoal: colitis""","""Protozoal: dysentery""","""Protozoal intestinal disease, unspecified"""]</t>
+          <t>["""Amoebic abscess of brain (and liver)(and lung)""","""Amoebic brain abscessG07"""]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ICD10:A08</t>
+          <t>ICD10:A06.7</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>["""influenza with involvement of gastrointestinal tractJ09J10.8J11.8""","""Viral and other specified intestinal infections"""]</t>
+          <t>["""Cutaneous amoebiasis"""]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ICD10:A08.1</t>
+          <t>ICD10:A06.8</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>["""Small round structured virus enteritis""","""Acute gastroenteropathy due to Norwalk agent"""]</t>
+          <t>["""Amoebic infection of other sites""","""Amoebic: appendicitis""","""Amoebic: balanitisN51.2"""]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ICD10:A08.4</t>
+          <t>ICD10:A06.9</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>["""Viral: gastroenteropathy NOS""","""Viral: enteritis NOS""","""Viral: gastroenteritis NOS""","""Viral intestinal infection, unspecified"""]</t>
+          <t>["""Amoebiasis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ICD10:A09</t>
+          <t>ICD10:A07.3</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>["""due to bacterial, protozoal, viral and other specified infectious agentsA00-A08""","""Other gastroenteritis and colitis of infectious and unspecified origin""","""noninfective (see noninfectious) diarrhoeaK52.9""","""noninfective (see noninfectious) diarrhoea neonatalP78.3"""]</t>
+          <t>["""Isosporosis""","""Isosporiasis""","""Intestinal coccidiosis""","""Infection due to Isospora belli and Isospora hominis"""]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ICD10:A09.0</t>
+          <t>ICD10:A07.8</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>["""Diarrhoea: epidemic""","""Other and unspecified gastroenteritis and colitis of infectious origin""","""Infectious or septic gastroenteritis haemorrhagic""","""Infectious or septic colitis haemorrhagic""","""Infectious diarrhoea NOS""","""Diarrhoea: acute haemorrhagic""","""Infectious or septic enteritis NOS"""]</t>
+          <t>["""Intestinal trichomoniasis""","""Other specified protozoal intestinal diseases""","""Sarcocystosis""","""Sarcosporidiosis"""]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ICD10:A09.9</t>
+          <t>ICD10:A07.9</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>["""Gastroenteritis and colitis of unspecified origin""","""Neonatal diarrhoea NOS"""]</t>
+          <t>["""Protozoal: colitis""","""Protozoal intestinal disease, unspecified""","""Protozoal: diarrhoea""","""Protozoal: dysentery""","""Flagellate diarrhoea"""]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ICD10:A15.0</t>
+          <t>ICD10:A08</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung, confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumothorax confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumonia confirmed by sputum microscopy with or without culture""","""Tuberculous: fibrosis of lung confirmed by sputum microscopy with or without culture""","""Tuberculous: bronchiectasis confirmed by sputum microscopy with or without culture"""]</t>
+          <t>["""Viral and other specified intestinal infections""","""influenza with involvement of gastrointestinal tractJ09J10.8J11.8"""]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ICD10:A15.1</t>
+          <t>ICD10:A08.1</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung, confirmed by culture only""","""Conditions listed in A15.0, confirmed by culture only"""]</t>
+          <t>["""Acute gastroenteropathy due to Norwalk agent""","""Small round structured virus enteritis"""]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ICD10:A15.2</t>
+          <t>ICD10:A08.4</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung, confirmed histologically""","""Conditions listed in A15.0, confirmed histologically"""]</t>
+          <t>["""Viral: enteritis NOS""","""Viral: gastroenteritis NOS""","""Viral intestinal infection, unspecified""","""Viral: gastroenteropathy NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ICD10:A15.3</t>
+          <t>ICD10:A09</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung, confirmed by unspecified means""","""Conditions listed in A15.0, confirmed but unspecified whether bacteriologically or histologically"""]</t>
+          <t>["""Other gastroenteritis and colitis of infectious and unspecified origin""","""due to bacterial, protozoal, viral and other specified infectious agentsA00-A08""","""noninfective (see noninfectious) diarrhoeaK52.9""","""noninfective (see noninfectious) diarrhoea neonatalP78.3"""]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ICD10:A15.4</t>
+          <t>ICD10:A09.0</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>["""specified as primaryA15.7""","""Tuberculosis of lymph nodes: mediastinal confirmed bacteriologically and histologically""","""Tuberculosis of intrathoracic lymph nodes, confirmed bacteriologically and histologically""","""Tuberculosis of lymph nodes: tracheobronchial confirmed bacteriologically and histologically""","""Tuberculosis of lymph nodes: hilar confirmed bacteriologically and histologically"""]</t>
+          <t>["""Diarrhoea: acute haemorrhagic""","""Infectious or septic enteritis NOS""","""Infectious or septic gastroenteritis haemorrhagic""","""Infectious or septic colitis haemorrhagic""","""Other and unspecified gastroenteritis and colitis of infectious origin""","""Diarrhoea: epidemic""","""Infectious diarrhoea NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ICD10:A15.5</t>
+          <t>ICD10:A09.9</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of larynx, trachea and bronchus, confirmed bacteriologically and histologically""","""Tuberculosis of: trachea confirmed bacteriologically and histologically""","""Tuberculosis of: glottis confirmed bacteriologically and histologically""","""Tuberculosis of: larynx confirmed bacteriologically and histologically""","""Tuberculosis of: bronchus confirmed bacteriologically and histologically"""]</t>
+          <t>["""Neonatal diarrhoea NOS""","""Gastroenteritis and colitis of unspecified origin"""]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ICD10:A15.6</t>
+          <t>ICD10:A15.0</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>["""in primary respiratory tuberculosis, confirmed bacteriologically and histologicallyA15.7""","""Tuberculous pleurisy, confirmed bacteriologically and histologically""","""Tuberculosis of pleura confirmed bacteriologically and histologically""","""Tuberculous empyema confirmed bacteriologically and histologically"""]</t>
+          <t>["""Tuberculosis of lung, confirmed by sputum microscopy with or without culture""","""Tuberculous: fibrosis of lung confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumothorax confirmed by sputum microscopy with or without culture""","""Tuberculous: bronchiectasis confirmed by sputum microscopy with or without culture""","""Tuberculous: pneumonia confirmed by sputum microscopy with or without culture"""]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ICD10:A15.7</t>
+          <t>ICD10:A15.1</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>["""Primary respiratory tuberculosis, confirmed bacteriologically and histologically"""]</t>
+          <t>["""Tuberculosis of lung, confirmed by culture only""","""Conditions listed in A15.0, confirmed by culture only"""]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ICD10:A15.8</t>
+          <t>ICD10:A15.2</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>["""Mediastinal tuberculosis confirmed bacteriologically and histologically""","""Nasopharyngeal tuberculosis confirmed bacteriologically and histologically""","""Other respiratory tuberculosis, confirmed bacteriologically and histologically""","""Tuberculosis of: nose confirmed bacteriologically and histologically""","""Tuberculosis of: sinus [any nasal] confirmed bacteriologically and histologically"""]</t>
+          <t>["""Conditions listed in A15.0, confirmed histologically""","""Tuberculosis of lung, confirmed histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ICD10:A15.9</t>
+          <t>ICD10:A15.3</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>["""Respiratory tuberculosis unspecified, confirmed bacteriologically and histologically"""]</t>
+          <t>["""Tuberculosis of lung, confirmed by unspecified means""","""Conditions listed in A15.0, confirmed but unspecified whether bacteriologically or histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ICD10:A16.0</t>
+          <t>ICD10:A15.4</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>["""Tuberculous: pneumothorax bacteriologically and histologically negative""","""Tuberculosis of lung, bacteriologically and histologically negative""","""Tuberculous: bronchiectasis bacteriologically and histologically negative""","""Tuberculous: fibrosis of lung bacteriologically and histologically negative""","""Tuberculous: pneumonia bacteriologically and histologically negative"""]</t>
+          <t>["""Tuberculosis of intrathoracic lymph nodes, confirmed bacteriologically and histologically""","""Tuberculosis of lymph nodes: mediastinal confirmed bacteriologically and histologically""","""Tuberculosis of lymph nodes: tracheobronchial confirmed bacteriologically and histologically""","""specified as primaryA15.7""","""Tuberculosis of lymph nodes: hilar confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ICD10:A16.1</t>
+          <t>ICD10:A15.5</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>["""Conditions listed in A16.0, bacteriological and histological examination not done""","""Tuberculosis of lung, bacteriological and histological examination not done"""]</t>
+          <t>["""Tuberculosis of: larynx confirmed bacteriologically and histologically""","""Tuberculosis of: bronchus confirmed bacteriologically and histologically""","""Tuberculosis of larynx, trachea and bronchus, confirmed bacteriologically and histologically""","""Tuberculosis of: glottis confirmed bacteriologically and histologically""","""Tuberculosis of: trachea confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ICD10:A16.2</t>
+          <t>ICD10:A15.6</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lung NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lung, without mention of bacteriological or histological confirmation""","""Tuberculous: pneumonia NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: bronchiectasis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: pneumothorax NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: fibrosis of lung NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Tuberculosis of pleura confirmed bacteriologically and histologically""","""Tuberculous empyema confirmed bacteriologically and histologically""","""Tuberculous pleurisy, confirmed bacteriologically and histologically""","""in primary respiratory tuberculosis, confirmed bacteriologically and histologicallyA15.7"""]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ICD10:A16.3</t>
+          <t>ICD10:A15.7</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of lymph nodes: hilar NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of intrathoracic lymph nodes, without mention of bacteriological or histological confirmation""","""Tuberculosis of lymph nodes: tracheobronchial NOS (without mention of bacteriological or histological confirmation)""","""when specified as primaryA16.7""","""Tuberculosis of lymph nodes: mediastinal NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: intrathoracic NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Primary respiratory tuberculosis, confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ICD10:A16.4</t>
+          <t>ICD10:A15.8</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of: larynx NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: bronchus NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: trachea NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: glottis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of larynx, trachea and bronchus, without mention of bacteriological or histological confirmation"""]</t>
+          <t>["""Tuberculosis of: sinus [any nasal] confirmed bacteriologically and histologically""","""Other respiratory tuberculosis, confirmed bacteriologically and histologically""","""Mediastinal tuberculosis confirmed bacteriologically and histologically""","""Tuberculosis of: nose confirmed bacteriologically and histologically""","""Nasopharyngeal tuberculosis confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ICD10:A16.5</t>
+          <t>ICD10:A15.9</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>["""in primary respiratory tuberculosisA16.7""","""Tuberculous pleurisy, without mention of bacteriological or histological confirmation""","""Tuberculous: pleurisy NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of pleura NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: empyema NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Respiratory tuberculosis unspecified, confirmed bacteriologically and histologically"""]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ICD10:A16.7</t>
+          <t>ICD10:A16.0</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>["""Primary respiratory tuberculosis without mention of bacteriological or histological confirmation""","""Primary: tuberculous complex""","""Primary: respiratory tuberculosis NOS"""]</t>
+          <t>["""Tuberculous: pneumonia bacteriologically and histologically negative""","""Tuberculosis of lung, bacteriologically and histologically negative""","""Tuberculous: fibrosis of lung bacteriologically and histologically negative""","""Tuberculous: pneumothorax bacteriologically and histologically negative""","""Tuberculous: bronchiectasis bacteriologically and histologically negative"""]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ICD10:A16.8</t>
+          <t>ICD10:A16.1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of: nose NOS (without mention of bacteriological or histological confirmation)""","""Nasopharyngeal tuberculosis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: sinus [any nasal] NOS (without mention of bacteriological or histological confirmation)""","""Other respiratory tuberculosis, without mention of bacteriological or histological confirmation""","""Mediastinal tuberculosis NOS (without mention of bacteriological or histological confirmation)"""]</t>
+          <t>["""Tuberculosis of lung, bacteriological and histological examination not done""","""Conditions listed in A16.0, bacteriological and histological examination not done"""]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ICD10:A16.9</t>
+          <t>ICD10:A16.2</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>["""Tuberculosis NOS""","""Respiratory tuberculosis NOS""","""Respiratory tuberculosis unspecified, without mention of bacteriological or histological confirmation"""]</t>
+          <t>["""Tuberculous: bronchiectasis NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: pneumonia NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lung NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lung, without mention of bacteriological or histological confirmation""","""Tuberculous: pneumothorax NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous: fibrosis of lung NOS (without mention of bacteriological or histological confirmation)"""]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ICD10:A17.0</t>
+          <t>ICD10:A16.3</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>["""Tuberculous leptomeningitis""","""Tuberculous meningitisG01""","""Tuberculosis of meninges (cerebral)(spinal)"""]</t>
+          <t>["""Tuberculosis of lymph nodes: hilar NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: mediastinal NOS (without mention of bacteriological or histological confirmation)""","""when specified as primaryA16.7""","""Tuberculosis of lymph nodes: tracheobronchial NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of lymph nodes: intrathoracic NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of intrathoracic lymph nodes, without mention of bacteriological or histological confirmation"""]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ICD10:A17.1</t>
+          <t>ICD10:A16.4</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>["""Meningeal tuberculomaG07""","""Tuberculoma of meninges"""]</t>
+          <t>["""Tuberculosis of: trachea NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: larynx NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of larynx, trachea and bronchus, without mention of bacteriological or histological confirmation""","""Tuberculosis of: bronchus NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: glottis NOS (without mention of bacteriological or histological confirmation)"""]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ICD10:A17.8</t>
+          <t>ICD10:A16.5</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>["""Other tuberculosis of nervous system""","""Tuberculous: abscess of brainG07""","""Tuberculoma of spinal cordG07""","""Tuberculoma of brainG07""","""Tuberculous: myelitisG05.0""","""Tuberculous: meningoencephalitisG05.0"""]</t>
+          <t>["""Tuberculous: empyema NOS (without mention of bacteriological or histological confirmation)""","""Tuberculous pleurisy, without mention of bacteriological or histological confirmation""","""in primary respiratory tuberculosisA16.7""","""Tuberculous: pleurisy NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of pleura NOS (without mention of bacteriological or histological confirmation)"""]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ICD10:A17.9</t>
+          <t>ICD10:A16.7</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of nervous system, unspecifiedG99.8"""]</t>
+          <t>["""Primary: tuberculous complex""","""Primary: respiratory tuberculosis NOS""","""Primary respiratory tuberculosis without mention of bacteriological or histological confirmation"""]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ICD10:A18.0</t>
+          <t>ICD10:A16.8</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of bones and joints""","""Tuberculous: synovitisM68.0""","""Tuberculosis of: kneeM01.1""","""Tuberculous: osteitisM90.0""","""Tuberculous: arthritisM01.1""","""Tuberculous: osteomyelitisM90.0""","""Tuberculous: mastoiditisH75.0"""]</t>
+          <t>["""Tuberculosis of: sinus [any nasal] NOS (without mention of bacteriological or histological confirmation)""","""Tuberculosis of: nose NOS (without mention of bacteriological or histological confirmation)""","""Mediastinal tuberculosis NOS (without mention of bacteriological or histological confirmation)""","""Other respiratory tuberculosis, without mention of bacteriological or histological confirmation""","""Nasopharyngeal tuberculosis NOS (without mention of bacteriological or histological confirmation)"""]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ICD10:A18.1</t>
+          <t>ICD10:A16.9</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of: kidneyN29.1""","""Tuberculosis of: male genital organsN51.-""","""Tuberculous female pelvic inflammatory diseaseN74.1""","""Tuberculosis of: cervixN74.0""","""Tuberculosis of genitourinary system""","""Tuberculosis of: ureterN29.1"""]</t>
+          <t>["""Tuberculosis NOS""","""Respiratory tuberculosis NOS""","""Respiratory tuberculosis unspecified, without mention of bacteriological or histological confirmation"""]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ICD10:A18.2</t>
+          <t>ICD10:A17.0</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>["""Tuberculous adenitis""","""Tuberculous peripheral lymphadenopathy""","""tuberculosis of lymph nodes: intrathoracicA15.4A16.3""","""tuberculous tracheobronchial adenopathyA15.4A16.3""","""tuberculosis of lymph nodes: mesenteric and retroperitonealA18.3"""]</t>
+          <t>["""Tuberculous leptomeningitis""","""Tuberculosis of meninges (cerebral)(spinal)""","""Tuberculous meningitisG01"""]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ICD10:A18.3</t>
+          <t>ICD10:A17.1</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of intestines, peritoneum and mesenteric glands""","""Tuberculosis (of): retroperitoneal (lymph nodes)""","""Tuberculosis (of): intestine (large)(small)K93.0""","""Tuberculous: enteritisK93.0""","""Tuberculous: peritonitisK67.3""","""Tuberculous: ascites"""]</t>
+          <t>["""Meningeal tuberculomaG07""","""Tuberculoma of meninges"""]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ICD10:A18.4</t>
+          <t>ICD10:A17.8</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>["""Lupus: vulgaris: of eyelidH03.1""","""Lupus: vulgaris: NOS""","""lupus erythematosus systemicM32.-""","""Tuberculosis of skin and subcutaneous tissue""","""Erythema induratum, tuberculous""","""Lupus: exedens""","""Scrofuloderma"""]</t>
+          <t>["""Tuberculous: myelitisG05.0""","""Tuberculous: abscess of brainG07""","""Other tuberculosis of nervous system""","""Tuberculoma of brainG07""","""Tuberculoma of spinal cordG07""","""Tuberculous: meningoencephalitisG05.0"""]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ICD10:A18.5</t>
+          <t>ICD10:A17.9</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of eye""","""Tuberculous: iridocyclitisH22.0""","""Tuberculous: interstitial keratitisH19.2""","""Tuberculous: chorioretinitisH32.0""","""Tuberculous: keratoconjunctivitis (interstitial)(phlyctenular)H19.2""","""Tuberculous: episcleritisH19.0""","""lupus vulgaris of eyelidA18.4"""]</t>
+          <t>["""Tuberculosis of nervous system, unspecifiedG99.8"""]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ICD10:A18.6</t>
+          <t>ICD10:A18.0</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>["""Tuberculous otitis mediaH67.0""","""tuberculous mastoiditisA18.0""","""Tuberculosis of ear"""]</t>
+          <t>["""Tuberculous: arthritisM01.1""","""Tuberculous: synovitisM68.0""","""Tuberculosis of bones and joints""","""Tuberculous: osteitisM90.0""","""Tuberculous: osteomyelitisM90.0""","""Tuberculous: mastoiditisH75.0""","""Tuberculosis of: kneeM01.1"""]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ICD10:A18.7</t>
+          <t>ICD10:A18.1</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>["""Addison disease, tuberculous""","""Tuberculosis of adrenal glandsE35.1"""]</t>
+          <t>["""Tuberculosis of genitourinary system""","""Tuberculosis of: ureterN29.1""","""Tuberculosis of: male genital organsN51.-""","""Tuberculosis of: kidneyN29.1""","""Tuberculosis of: cervixN74.0""","""Tuberculous female pelvic inflammatory diseaseN74.1"""]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ICD10:A18.8</t>
+          <t>ICD10:A18.2</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>["""Tuberculous cerebral arteritisI68.1""","""Tuberculosis of: myocardiumI41.0""","""Tuberculosis of: oesophagusK23.0""","""Tuberculosis of: endocardiumI39.8""","""Tuberculosis of: pericardiumI32.0""","""Tuberculosis of other specified organs"""]</t>
+          <t>["""tuberculosis of lymph nodes: mesenteric and retroperitonealA18.3""","""Tuberculous peripheral lymphadenopathy""","""tuberculosis of lymph nodes: intrathoracicA15.4A16.3""","""Tuberculous adenitis""","""tuberculous tracheobronchial adenopathyA15.4A16.3"""]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ICD10:A19</t>
+          <t>ICD10:A18.3</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>["""tuberculosis: disseminated""","""tuberculous polyserositis""","""Miliary tuberculosis""","""tuberculosis: generalized"""]</t>
+          <t>["""Tuberculosis (of): retroperitoneal (lymph nodes)""","""Tuberculous: enteritisK93.0""","""Tuberculosis of intestines, peritoneum and mesenteric glands""","""Tuberculosis (of): intestine (large)(small)K93.0""","""Tuberculous: peritonitisK67.3""","""Tuberculous: ascites"""]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ICD10:A20</t>
+          <t>ICD10:A18.4</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>["""infection due to Yersinia pestis""","""Plague"""]</t>
+          <t>["""Lupus: vulgaris: of eyelidH03.1""","""Lupus: vulgaris: NOS""","""Erythema induratum, tuberculous""","""Lupus: exedens""","""Tuberculosis of skin and subcutaneous tissue""","""Scrofuloderma""","""lupus erythematosus systemicM32.-"""]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ICD10:A20.7</t>
+          <t>ICD10:A18.5</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>["""Septicaemic plague"""]</t>
+          <t>["""lupus vulgaris of eyelidA18.4""","""Tuberculous: chorioretinitisH32.0""","""Tuberculous: keratoconjunctivitis (interstitial)(phlyctenular)H19.2""","""Tuberculosis of eye""","""Tuberculous: episcleritisH19.0""","""Tuberculous: iridocyclitisH22.0""","""Tuberculous: interstitial keratitisH19.2"""]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ICD10:A20.8</t>
+          <t>ICD10:A18.6</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>["""Other forms of plague""","""Pestis minor""","""Asymptomatic plague""","""Abortive plague"""]</t>
+          <t>["""Tuberculous otitis mediaH67.0""","""tuberculous mastoiditisA18.0""","""Tuberculosis of ear"""]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ICD10:A21</t>
+          <t>ICD10:A18.7</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>["""rabbit fever""","""deer-fly fever""","""Tularaemia""","""infection due to Francisella tularensis"""]</t>
+          <t>["""Addison disease, tuberculous""","""Tuberculosis of adrenal glandsE35.1"""]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ICD10:A21.0</t>
+          <t>ICD10:A18.8</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>["""Ulceroglandular tularaemia"""]</t>
+          <t>["""Tuberculosis of: pericardiumI32.0""","""Tuberculosis of: myocardiumI41.0""","""Tuberculosis of other specified organs""","""Tuberculosis of: oesophagusK23.0""","""Tuberculous cerebral arteritisI68.1""","""Tuberculosis of: endocardiumI39.8"""]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ICD10:A21.1</t>
+          <t>ICD10:A19</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>["""Ophthalmic tularaemia""","""Oculoglandular tularaemia"""]</t>
+          <t>["""tuberculosis: generalized""","""tuberculous polyserositis""","""tuberculosis: disseminated""","""Miliary tuberculosis"""]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ICD10:A21.2</t>
+          <t>ICD10:A20</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>["""Pulmonary tularaemia"""]</t>
+          <t>["""infection due to Yersinia pestis""","""Plague"""]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ICD10:A21.3</t>
+          <t>ICD10:A20.7</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>["""Abdominal tularaemia""","""Gastrointestinal tularaemia"""]</t>
+          <t>["""Septicaemic plague"""]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ICD10:A21.7</t>
+          <t>ICD10:A20.8</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>["""Generalized tularaemia"""]</t>
+          <t>["""Other forms of plague""","""Pestis minor""","""Abortive plague""","""Asymptomatic plague"""]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ICD10:A21.8</t>
+          <t>ICD10:A21</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>["""Other forms of tularaemia"""]</t>
+          <t>["""deer-fly fever""","""rabbit fever""","""infection due to Francisella tularensis""","""Tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ICD10:A21.9</t>
+          <t>ICD10:A21.0</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>["""Tularaemia, unspecified"""]</t>
+          <t>["""Ulceroglandular tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ICD10:A22</t>
+          <t>ICD10:A21.1</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>["""Anthrax""","""infection due to Bacillus anthracis"""]</t>
+          <t>["""Oculoglandular tularaemia""","""Ophthalmic tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ICD10:A22.0</t>
+          <t>ICD10:A21.2</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>["""Malignant: carbuncle""","""Malignant: pustule""","""Cutaneous anthrax"""]</t>
+          <t>["""Pulmonary tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ICD10:A22.1</t>
+          <t>ICD10:A21.3</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>["""Woolsorter disease""","""Pulmonary anthrax""","""Ragpicker disease""","""Inhalation anthrax"""]</t>
+          <t>["""Gastrointestinal tularaemia""","""Abdominal tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ICD10:A22.8</t>
+          <t>ICD10:A21.7</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>["""Other forms of anthrax""","""Anthrax meningitisG01"""]</t>
+          <t>["""Generalized tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ICD10:A23</t>
+          <t>ICD10:A21.8</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>["""Brucellosis""","""fever: Mediterranean""","""fever: Malta""","""fever: undulant"""]</t>
+          <t>["""Other forms of tularaemia"""]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ICD10:A23.9</t>
+          <t>ICD10:A21.9</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>["""Brucellosis, unspecified"""]</t>
+          <t>["""Tularaemia, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ICD10:A24</t>
+          <t>ICD10:A22</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>["""Glanders and melioidosis"""]</t>
+          <t>["""infection due to Bacillus anthracis""","""Anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ICD10:A24.0</t>
+          <t>ICD10:A22.0</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>["""Infection due to Pseudomonas mallei""","""Infection due to Burkholderia mallei""","""Malleus""","""Glanders"""]</t>
+          <t>["""Malignant: pustule""","""Malignant: carbuncle""","""Cutaneous anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ICD10:A24.1</t>
+          <t>ICD10:A22.1</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>["""Acute and fulminating melioidosis""","""Melioidosis: sepsis""","""Melioidosis: pneumonia"""]</t>
+          <t>["""Woolsorter disease""","""Pulmonary anthrax""","""Ragpicker disease""","""Inhalation anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ICD10:A24.2</t>
+          <t>ICD10:A22.8</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>["""Subacute and chronic melioidosis"""]</t>
+          <t>["""Anthrax meningitisG01""","""Other forms of anthrax"""]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ICD10:A24.3</t>
+          <t>ICD10:A23</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>["""Other melioidosis"""]</t>
+          <t>["""fever: Malta""","""fever: undulant""","""Brucellosis""","""fever: Mediterranean"""]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ICD10:A24.4</t>
+          <t>ICD10:A23.9</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>["""Infection due to Pseudomonas pseudomallei NOS""","""Infection due to Burkholderia pseudomallei NOS""","""Whitmore disease""","""Melioidosis, unspecified"""]</t>
+          <t>["""Brucellosis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ICD10:A25</t>
+          <t>ICD10:A24</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>["""Rat-bite fevers"""]</t>
+          <t>["""Glanders and melioidosis"""]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ICD10:A25.0</t>
+          <t>ICD10:A24.0</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>["""Spirillosis""","""Sodoku"""]</t>
+          <t>["""Infection due to Pseudomonas mallei""","""Glanders""","""Infection due to Burkholderia mallei""","""Malleus"""]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ICD10:A25.1</t>
+          <t>ICD10:A24.1</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>["""Haverhill fever""","""Epidemic arthritic erythema""","""Streptobacillosis""","""Streptobacillary rat-bite fever"""]</t>
+          <t>["""Acute and fulminating melioidosis""","""Melioidosis: pneumonia""","""Melioidosis: sepsis"""]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ICD10:A25.9</t>
+          <t>ICD10:A24.2</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>["""Rat-bite fever, unspecified"""]</t>
+          <t>["""Subacute and chronic melioidosis"""]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ICD10:A26</t>
+          <t>ICD10:A24.3</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>["""Erysipeloid"""]</t>
+          <t>["""Other melioidosis"""]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ICD10:A26.0</t>
+          <t>ICD10:A24.4</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>["""Cutaneous erysipeloid""","""Erythema migrans"""]</t>
+          <t>["""Infection due to Pseudomonas pseudomallei NOS""","""Melioidosis, unspecified""","""Whitmore disease""","""Infection due to Burkholderia pseudomallei NOS"""]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ICD10:A26.7</t>
+          <t>ICD10:A25</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>["""Erysipelothrix sepsis"""]</t>
+          <t>["""Rat-bite fevers"""]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ICD10:A26.8</t>
+          <t>ICD10:A25.0</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>["""Other forms of erysipeloid"""]</t>
+          <t>["""Sodoku""","""Spirillosis"""]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ICD10:A26.9</t>
+          <t>ICD10:A25.1</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>["""Erysipeloid, unspecified"""]</t>
+          <t>["""Streptobacillary rat-bite fever""","""Epidemic arthritic erythema""","""Streptobacillosis""","""Haverhill fever"""]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ICD10:A27</t>
+          <t>ICD10:A25.9</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>["""Leptospirosis"""]</t>
+          <t>["""Rat-bite fever, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ICD10:A27.0</t>
+          <t>ICD10:A26</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>["""Leptospirosis icterohaemorrhagica""","""Leptospirosis due to Leptospira interrogans serovar icterohaemorrhagiae"""]</t>
+          <t>["""Erysipeloid"""]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ICD10:A27.8</t>
+          <t>ICD10:A26.0</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>["""Other forms of leptospirosis"""]</t>
+          <t>["""Erythema migrans""","""Cutaneous erysipeloid"""]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ICD10:A27.9</t>
+          <t>ICD10:A26.7</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>["""Leptospirosis, unspecified"""]</t>
+          <t>["""Erysipelothrix sepsis"""]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ICD10:A28</t>
+          <t>ICD10:A26.8</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>["""Other zoonotic bacterial diseases, not elsewhere classified"""]</t>
+          <t>["""Other forms of erysipeloid"""]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ICD10:A28.0</t>
+          <t>ICD10:A26.9</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>["""Pasteurellosis"""]</t>
+          <t>["""Erysipeloid, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ICD10:A28.1</t>
+          <t>ICD10:A27</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>["""Cat-scratch fever""","""Cat-scratch disease"""]</t>
+          <t>["""Leptospirosis"""]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ICD10:A28.2</t>
+          <t>ICD10:A27.0</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>["""Extraintestinal yersiniosis""","""enteritis due to Yersinia enterocoliticaA04.6""","""plagueA20.-"""]</t>
+          <t>["""Leptospirosis due to Leptospira interrogans serovar icterohaemorrhagiae""","""Leptospirosis icterohaemorrhagica"""]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ICD10:A28.8</t>
+          <t>ICD10:A27.8</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>["""Other specified zoonotic bacterial diseases, not elsewhere classified"""]</t>
+          <t>["""Other forms of leptospirosis"""]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ICD10:A28.9</t>
+          <t>ICD10:A27.9</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>["""Zoonotic bacterial disease, unspecified"""]</t>
+          <t>["""Leptospirosis, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ICD10:A30</t>
+          <t>ICD10:A28</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>["""sequelae of leprosyB92""","""infection due to Mycobacterium leprae""","""Leprosy [Hansen disease]"""]</t>
+          <t>["""Other zoonotic bacterial diseases, not elsewhere classified"""]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ICD10:A30.0</t>
+          <t>ICD10:A28.0</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>["""Indeterminate leprosy""","""I leprosy"""]</t>
+          <t>["""Pasteurellosis"""]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ICD10:A30.1</t>
+          <t>ICD10:A28.1</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>["""Tuberculoid leprosy""","""TT leprosy"""]</t>
+          <t>["""Cat-scratch fever""","""Cat-scratch disease"""]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ICD10:A30.2</t>
+          <t>ICD10:A28.2</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>["""BT leprosy""","""Borderline tuberculoid leprosy"""]</t>
+          <t>["""plagueA20.-""","""Extraintestinal yersiniosis""","""enteritis due to Yersinia enterocoliticaA04.6"""]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ICD10:A30.3</t>
+          <t>ICD10:A28.8</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>["""BB leprosy""","""Borderline leprosy"""]</t>
+          <t>["""Other specified zoonotic bacterial diseases, not elsewhere classified"""]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ICD10:A30.4</t>
+          <t>ICD10:A28.9</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>["""Borderline lepromatous leprosy""","""BL leprosy"""]</t>
+          <t>["""Zoonotic bacterial disease, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ICD10:A30.5</t>
+          <t>ICD10:A30</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>["""Lepromatous leprosy""","""LL leprosy"""]</t>
+          <t>["""Leprosy [Hansen disease]""","""sequelae of leprosyB92""","""infection due to Mycobacterium leprae"""]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ICD10:A30.8</t>
+          <t>ICD10:A30.0</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>["""Other forms of leprosy"""]</t>
+          <t>["""Indeterminate leprosy""","""I leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ICD10:A30.9</t>
+          <t>ICD10:A30.1</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>["""Leprosy, unspecified"""]</t>
+          <t>["""TT leprosy""","""Tuberculoid leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ICD10:A31</t>
+          <t>ICD10:A30.2</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>["""Infection due to other mycobacteria""","""leprosyA30.-""","""tuberculosisA15-A19"""]</t>
+          <t>["""Borderline tuberculoid leprosy""","""BT leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ICD10:A31.0</t>
+          <t>ICD10:A30.3</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>["""Infection due to Mycobacterium: avium""","""Infection due to Mycobacterium: kansasii""","""Pulmonary mycobacterial infection""","""Infection due to Mycobacterium: intracellulare [Battey bacillus]"""]</t>
+          <t>["""BB leprosy""","""Borderline leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ICD10:A31.1</t>
+          <t>ICD10:A30.4</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>["""Buruli ulcer""","""Infection due to Mycobacterium: ulcerans""","""Infection due to Mycobacterium: marinum""","""Cutaneous mycobacterial infection"""]</t>
+          <t>["""BL leprosy""","""Borderline lepromatous leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ICD10:A31.8</t>
+          <t>ICD10:A30.5</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>["""Other mycobacterial infections"""]</t>
+          <t>["""Lepromatous leprosy""","""LL leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ICD10:A31.9</t>
+          <t>ICD10:A30.8</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>["""Mycobacterial infection, unspecified""","""Mycobacteriosis NOS""","""Atypical mycobacterium infection NOS"""]</t>
+          <t>["""Other forms of leprosy"""]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ICD10:A32</t>
+          <t>ICD10:A30.9</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>["""listerial foodborne infection""","""neonatal (disseminated) listeriosisP37.2""","""Listeriosis"""]</t>
+          <t>["""Leprosy, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>MeSH:D000004</t>
+          <t>ICD10:A31</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>["""Acronyms as Topic""","""Abbreviations as Topic"""]</t>
+          <t>["""Infection due to other mycobacteria""","""tuberculosisA15-A19""","""leprosyA30.-"""]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>MeSH:D000003</t>
+          <t>ICD10:A31.0</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>["""Slaughter House""","""Slaughter Houses""","""Slaughterhouses""","""Abattoirs"""]</t>
+          <t>["""Infection due to Mycobacterium: kansasii""","""Infection due to Mycobacterium: avium""","""Pulmonary mycobacterial infection""","""Infection due to Mycobacterium: intracellulare [Battey bacillus]"""]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>MeSH:D000005</t>
+          <t>ICD10:A31.1</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>["""Abdomen"""]</t>
+          <t>["""Infection due to Mycobacterium: ulcerans""","""Buruli ulcer""","""Infection due to Mycobacterium: marinum""","""Cutaneous mycobacterial infection"""]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>MeSH:D000002</t>
+          <t>ICD10:A31.8</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>["""Temephos""","""Abate""","""Temefos""","""Difos"""]</t>
+          <t>["""Other mycobacterial infections"""]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>MeSH:D000001</t>
+          <t>ICD10:A31.9</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>["""Calcimycin""","""A23187""","""Antibiotic A23187""","""A-23187"""]</t>
+          <t>["""Mycobacteriosis NOS""","""Atypical mycobacterium infection NOS""","""Mycobacterial infection, unspecified"""]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>MeSH:D000006</t>
+          <t>ICD10:A32</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>["""Abdomen, Acute"""]</t>
+          <t>["""neonatal (disseminated) listeriosisP37.2""","""listerial foodborne infection""","""Listeriosis"""]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>MeSH:D000007</t>
+          <t>MeSH:D000004</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>["""Injuries, Abdominal""","""Abdominal Injuries"""]</t>
+          <t>["""Abbreviations as Topic""","""Acronyms as Topic"""]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>MeSH:D000008</t>
+          <t>MeSH:D000003</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>["""Abdominal Neoplasms"""]</t>
+          <t>["""Slaughterhouses""","""Slaughter Houses""","""Abattoirs""","""Slaughter House"""]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>MeSH:D000009</t>
+          <t>MeSH:D000005</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>["""Transverse Abdominal""","""Pyramidalis Muscle""","""Abdominal Muscles""","""Quadratus Abdominis""","""Cremaster Muscle""","""Transversus Abdominis"""]</t>
+          <t>["""Abdomen"""]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>MeSH:D000011</t>
+          <t>MeSH:D000002</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>["""Abelson Leukemia Virus""","""Abelson murine leukemia virus"""]</t>
+          <t>["""Temefos""","""Abate""","""Difos""","""Temephos"""]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>MeSH:D000010</t>
+          <t>MeSH:D000001</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>["""Sixth Cranial Nerve""","""Abducent Nerve""","""Nervus Abducens""","""Cranial Nerve VI""","""Nerve VI""","""Abducens Nerve"""]</t>
+          <t>["""Antibiotic A23187""","""A-23187""","""A23187""","""Calcimycin"""]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>MeSH:D000013</t>
+          <t>MeSH:D000006</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>["""Congenital Abnormalities""","""Abnormalities, Congenital""","""Congenital Defects""","""Deformities""","""Birth Defects""","""Defects, Congenital"""]</t>
+          <t>["""Abdomen, Acute"""]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>MeSH:D000012</t>
+          <t>MeSH:D000007</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>["""Microsomal Triglyceride Transfer Protein Deficiency""","""Microsomal Triglyceride Transfer Protein Deficiency Disease""","""Acanthocytosis""","""Bassen-Kornzweig Syndrome""","""Abetalipoproteinemia""","""Betalipoprotein Deficiency Disease""","""Bassen-Kornzweig Disease"""]</t>
+          <t>["""Injuries, Abdominal""","""Abdominal Injuries"""]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>MeSH:D000014</t>
+          <t>MeSH:D000008</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>["""Abnormalities, Drug-Induced""","""Drug-Induced Abnormalities"""]</t>
+          <t>["""Abdominal Neoplasms"""]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>MeSH:D000015</t>
+          <t>MeSH:D000009</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>["""Multiple Abnormalities""","""Abnormalities, Multiple"""]</t>
+          <t>["""Pyramidalis Muscle""","""Abdominal Muscles""","""Transversus Abdominis""","""Transverse Abdominal""","""Cremaster Muscle""","""Quadratus Abdominis"""]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>MeSH:D000017</t>
+          <t>MeSH:D000011</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>["""Blood Group H Type 1 Antigen""","""ABO Blood-Group System""","""H Blood Group""","""H Blood Group System""","""ABH Blood Group""","""ABO Factors"""]</t>
+          <t>["""Abelson murine leukemia virus""","""Abelson Leukemia Virus"""]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>MeSH:D000018</t>
+          <t>MeSH:D000010</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>["""Abomasum"""]</t>
+          <t>["""Cranial Nerve VI""","""Abducens Nerve""","""Abducent Nerve""","""Nerve VI""","""Sixth Cranial Nerve""","""Nervus Abducens"""]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>MeSH:D000016</t>
+          <t>MeSH:D000013</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>["""Radiation-Induced Abnormalities""","""Abnormalities, Radiation-Induced"""]</t>
+          <t>["""Abnormalities, Congenital""","""Congenital Defects""","""Defects, Congenital""","""Congenital Abnormalities""","""Deformities""","""Birth Defects"""]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>MeSH:D000019</t>
+          <t>MeSH:D000012</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>["""Abortifacient Effects""","""Abortifacient Effect""","""Abortifacient Agents""","""Abortifacients""","""Contraceptive Agents, Postconception"""]</t>
+          <t>["""Betalipoprotein Deficiency Disease""","""Bassen-Kornzweig Syndrome""","""Abetalipoproteinemia""","""Bassen-Kornzweig Disease""","""Microsomal Triglyceride Transfer Protein Deficiency Disease""","""Acanthocytosis""","""Microsomal Triglyceride Transfer Protein Deficiency"""]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>MeSH:D000023</t>
+          <t>MeSH:D000014</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>["""Abortion Seekers""","""Abortion Seekers, Repeated""","""Abortion Applicants""","""Abortion Seekers, Refused"""]</t>
+          <t>["""Abnormalities, Drug-Induced""","""Drug-Induced Abnormalities"""]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>MeSH:D000020</t>
+          <t>MeSH:D000015</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>["""Abortifacient Agents, Nonsteroidal""","""Abortifacient Agents, Non-Steroidal"""]</t>
+          <t>["""Abnormalities, Multiple""","""Multiple Abnormalities"""]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>MeSH:D000021</t>
+          <t>MeSH:D000017</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>["""Steroid Abortifacients""","""Abortifacient Agents, Steroidal"""]</t>
+          <t>["""H Blood Group""","""ABH Blood Group""","""H Blood Group System""","""ABO Factors""","""ABO Blood-Group System""","""Blood Group H Type 1 Antigen"""]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>MeSH:D000024</t>
+          <t>MeSH:D000018</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>["""Abortion, Criminal""","""Abortion, Illegal""","""Illegal Abortion"""]</t>
+          <t>["""Abomasum"""]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>MeSH:D000022</t>
+          <t>MeSH:D000016</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>["""Abortion, Tubal""","""Miscarriage""","""Abortion, Spontaneous""","""Spontaneous Abortion""","""Early Pregnancy Loss"""]</t>
+          <t>["""Abnormalities, Radiation-Induced""","""Radiation-Induced Abnormalities"""]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>MeSH:D000025</t>
+          <t>MeSH:D000019</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>["""Selective Abortion""","""Eugenic Abortion""","""Abortion, Selective""","""Abortion, Eugenic"""]</t>
+          <t>["""Abortifacient Agents""","""Abortifacients""","""Contraceptive Agents, Postconception""","""Abortifacient Effect""","""Abortifacient Effects"""]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>MeSH:D000026</t>
+          <t>MeSH:D000023</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>["""Abortion, Habitual""","""Recurrent Early Pregnancy Loss""","""Abortion, Recurrent""","""Miscarriage, Recurrent"""]</t>
+          <t>["""Abortion Seekers, Repeated""","""Abortion Seekers""","""Abortion Applicants""","""Abortion Seekers, Refused"""]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>MeSH:D000029</t>
+          <t>MeSH:D000020</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>["""Abortion, Legal""","""Abortion on Demand"""]</t>
+          <t>["""Abortifacient Agents, Non-Steroidal""","""Abortifacient Agents, Nonsteroidal"""]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>MeSH:D000027</t>
+          <t>MeSH:D000021</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>["""Abortion, Incomplete"""]</t>
+          <t>["""Abortifacient Agents, Steroidal""","""Steroid Abortifacients"""]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>MeSH:D000028</t>
+          <t>MeSH:D000024</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>["""Abortion, Saline-Solution""","""Abortion Rate""","""Abortion Techniques""","""Abortion History""","""Abortion, Rivanol""","""Previous Abortion""","""Induced Abortion""","""Abortion (Induced)""","""Abortion, Soap-Solution""","""Anti-Abortion Groups""","""Abortion Failure""","""Abortion, Drug-Induced""","""Abortion Technics""","""Abortion, Induced""","""Embryotomy""","""Fertility Control, Postconception"""]</t>
+          <t>["""Illegal Abortion""","""Abortion, Illegal""","""Abortion, Criminal"""]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>MeSH:D000030</t>
+          <t>MeSH:D000022</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>["""Abortion, Missed"""]</t>
+          <t>["""Abortion, Tubal""","""Abortion, Spontaneous""","""Spontaneous Abortion""","""Miscarriage""","""Early Pregnancy Loss"""]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>MeSH:D000032</t>
+          <t>MeSH:D000025</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>["""Abortion, Therapeutic""","""Therapeutic Abortion"""]</t>
+          <t>["""Eugenic Abortion""","""Abortion, Eugenic""","""Selective Abortion""","""Abortion, Selective"""]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>MeSH:D000035</t>
+          <t>MeSH:D000026</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>["""Abreaction"""]</t>
+          <t>["""Abortion, Recurrent""","""Abortion, Habitual""","""Recurrent Early Pregnancy Loss""","""Miscarriage, Recurrent"""]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>MeSH:D000031</t>
+          <t>MeSH:D000029</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>["""Abortion, Septic""","""Septic Abortion"""]</t>
+          <t>["""Abortion on Demand""","""Abortion, Legal"""]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>MeSH:D000033</t>
+          <t>MeSH:D000027</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>["""Abortion, Threatened""","""Threatened Miscarriage"""]</t>
+          <t>["""Abortion, Incomplete"""]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>MeSH:D000034</t>
+          <t>MeSH:D000028</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>["""Veterinary Abortion""","""Abortion, Veterinary"""]</t>
+          <t>["""Abortion, Rivanol""","""Abortion, Soap-Solution""","""Embryotomy""","""Abortion, Saline-Solution""","""Abortion Failure""","""Fertility Control, Postconception""","""Abortion (Induced)""","""Abortion Rate""","""Anti-Abortion Groups""","""Abortion Technics""","""Abortion History""","""Induced Abortion""","""Previous Abortion""","""Abortion, Induced""","""Abortion Techniques""","""Abortion, Drug-Induced"""]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>MeSH:D000037</t>
+          <t>MeSH:D000030</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>["""Abruptio Placentae""","""Placental Abruption"""]</t>
+          <t>["""Abortion, Missed"""]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>MeSH:D000036</t>
+          <t>MeSH:D000032</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>["""Abrin""","""Abrin A""","""Abrin C"""]</t>
+          <t>["""Therapeutic Abortion""","""Abortion, Therapeutic"""]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>MeSH:D000041</t>
+          <t>MeSH:D000035</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>["""Absenteeism"""]</t>
+          <t>["""Abreaction"""]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>MeSH:D000042</t>
+          <t>MeSH:D000031</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>["""Absorption"""]</t>
+          <t>["""Abortion, Septic""","""Septic Abortion"""]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>MeSH:D000038</t>
+          <t>MeSH:D000033</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>["""Abscess"""]</t>
+          <t>["""Abortion, Threatened""","""Threatened Miscarriage"""]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>MeSH:D000039</t>
+          <t>MeSH:D000034</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>["""Abscess, Peritonsillar""","""Peritonsillar Abscess"""]</t>
+          <t>["""Abortion, Veterinary""","""Veterinary Abortion"""]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>MeSH:D000043</t>
+          <t>MeSH:D000037</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>["""Indexing""","""Abstracting as Topic""","""Indexes as Topic""","""Abstracting and Indexing""","""Indexing and Abstracting as Topic""","""Abstracting""","""Indexing as Topic""","""Abstracting and Indexing as Topic""","""Indexing and Abstracting"""]</t>
+          <t>["""Abruptio Placentae""","""Placental Abruption"""]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>MeSH:D000044</t>
+          <t>MeSH:D000036</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>["""Abutments, Dental""","""Abutment, Dental""","""Dental Abutment""","""Dental Abutments"""]</t>
+          <t>["""Abrin""","""Abrin C""","""Abrin A"""]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>MeSH:D000040</t>
+          <t>MeSH:D000041</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>["""Abscissins""","""Abscisic Acid Monoammonium Salt, (R)-Isomer""","""Abscissic Acid""","""Abscisic Acid, (Z,E)-Isomer""","""Abscisic Acid, (R)-Isomer""","""Abscisic Acid, (E,Z)-(+,-)-Isomer""","""Abscisic Acid""","""Abscisic Acid, (E,E)-(+-)-Isomer""","""Abscisic Acid, (+,-)-Isomer"""]</t>
+          <t>["""Absenteeism"""]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>MeSH:D000045</t>
+          <t>MeSH:D000042</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>["""Wattle Tree""","""Locust Tree""","""Acacia""","""Acacia catechu"""]</t>
+          <t>["""Absorption"""]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>MeSH:D000047</t>
+          <t>MeSH:D000038</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>["""Research Institutes""","""Academies and Institutes""","""Academy and Institute""","""Institutes""","""Academies""","""Institutes and Academies"""]</t>
+          <t>["""Abscess"""]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>MeSH:D000046</t>
+          <t>MeSH:D000039</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>["""Center, Academic Medical""","""Center, University Medical""","""University Medical Centers""","""Medical Centers, Academic""","""Medical Center, Academic""","""University Medical Center""","""Academic Medical Centers""","""Centers, Academic Medical""","""Academic Medical Center""","""Medical Centers, University""","""Medical Center, University""","""Centers, University Medical"""]</t>
+          <t>["""Abscess, Peritonsillar""","""Peritonsillar Abscess"""]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>MeSH:D000048</t>
+          <t>MeSH:D000043</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>["""Acanthamoeba"""]</t>
+          <t>["""Abstracting and Indexing""","""Abstracting as Topic""","""Indexes as Topic""","""Indexing as Topic""","""Indexing and Abstracting as Topic""","""Abstracting""","""Indexing""","""Indexing and Abstracting""","""Abstracting and Indexing as Topic"""]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>MeSH:D000050</t>
+          <t>MeSH:D000044</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>["""Acanthocytes"""]</t>
+          <t>["""Abutments, Dental""","""Abutment, Dental""","""Dental Abutment""","""Dental Abutments"""]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>MeSH:D000049</t>
+          <t>MeSH:D000040</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>["""Thorny-Headed Worms""","""Acanthocephala"""]</t>
+          <t>["""Abscissins""","""Abscisic Acid, (E,E)-(+-)-Isomer""","""Abscisic Acid Monoammonium Salt, (R)-Isomer""","""Abscisic Acid""","""Abscissic Acid""","""Abscisic Acid, (R)-Isomer""","""Abscisic Acid, (E,Z)-(+,-)-Isomer""","""Abscisic Acid, (Z,E)-Isomer""","""Abscisic Acid, (+,-)-Isomer"""]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>MeSH:D000054</t>
+          <t>MeSH:D000045</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>["""Acceleration"""]</t>
+          <t>["""Locust Tree""","""Acacia catechu""","""Wattle Tree""","""Acacia"""]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>MeSH:D000053</t>
+          <t>MeSH:D000047</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>["""Acari"""]</t>
+          <t>["""Institutes""","""Academies""","""Institutes and Academies""","""Research Institutes""","""Academies and Institutes""","""Academy and Institute"""]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>MeSH:D000052</t>
+          <t>MeSH:D000046</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>["""Acanthosis Nigricans"""]</t>
+          <t>["""Medical Centers, Academic""","""Centers, University Medical""","""University Medical Centers""","""Medical Centers, University""","""Center, Academic Medical""","""Academic Medical Center""","""University Medical Center""","""Academic Medical Centers""","""Center, University Medical""","""Medical Center, Academic""","""Centers, Academic Medical""","""Medical Center, University"""]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>MeSH:D000051</t>
+          <t>MeSH:D000048</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>["""Acantholysis"""]</t>
+          <t>["""Acanthamoeba"""]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>MeSH:D000057</t>
+          <t>MeSH:D000050</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>["""Accident Proneness"""]</t>
+          <t>["""Acanthocytes"""]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>MeSH:D000056</t>
+          <t>MeSH:D000049</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>["""Prevention, Accident""","""Accident Prevention"""]</t>
+          <t>["""Thorny-Headed Worms""","""Acanthocephala"""]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>MeSH:D000058</t>
+          <t>MeSH:D000054</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>["""Falls, Accidental""","""Slip and Fall""","""Accidental Falls""","""Falling""","""Falls"""]</t>
+          <t>["""Acceleration"""]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>MeSH:D000059</t>
+          <t>MeSH:D000053</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>["""Accidents"""]</t>
+          <t>["""Acari"""]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>MeSH:D000055</t>
+          <t>MeSH:D000052</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>["""Nerve XI""","""Accessory Nerve""","""Cranial Nerve XI""","""Eleventh Cranial Nerve""","""Spinal Accessory Nerve""","""Nervus Accessorius"""]</t>
+          <t>["""Acanthosis Nigricans"""]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>MeSH:D000060</t>
+          <t>MeSH:D000051</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>["""Accidents, Aviation"""]</t>
+          <t>["""Acantholysis"""]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>MeSH:D000061</t>
+          <t>MeSH:D000057</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>["""Home Accidents""","""Accidents, Home"""]</t>
+          <t>["""Accident Proneness"""]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>MeSH:D000063</t>
+          <t>MeSH:D000056</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>["""Traffic Accidents""","""Accidents, Traffic"""]</t>
+          <t>["""Prevention, Accident""","""Accident Prevention"""]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>MeSH:D000064</t>
+          <t>MeSH:D000058</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>["""Acclimatization""","""Acclimation"""]</t>
+          <t>["""Falling""","""Falls, Accidental""","""Falls""","""Accidental Falls""","""Slip and Fall"""]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>MeSH:D000062</t>
+          <t>MeSH:D000059</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>["""Industrial Accidents""","""Occupational Accidents""","""Accidents, Industrial""","""Accidents, Occupational"""]</t>
+          <t>["""Accidents"""]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>MeSH:D000065</t>
+          <t>MeSH:D000055</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>["""Accommodation, Lens""","""Ocular Accommodation""","""Accommodation, Ocular""","""Ocular Distance Accommodation"""]</t>
+          <t>["""Cranial Nerve XI""","""Nerve XI""","""Eleventh Cranial Nerve""","""Nervus Accessorius""","""Accessory Nerve""","""Spinal Accessory Nerve"""]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>MeSH:D000066</t>
+          <t>MeSH:D000060</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>["""Accounting"""]</t>
+          <t>["""Accidents, Aviation"""]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>MeSH:D000066428</t>
+          <t>MeSH:D000061</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>["""Coal Industry"""]</t>
+          <t>["""Accidents, Home""","""Home Accidents"""]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>MeSH:D000066448</t>
+          <t>MeSH:D000063</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>["""Drunk Driving""","""Driving Under the Influence""","""Driving While Intoxicated""","""Drinking and Driving""","""Drunken Driving"""]</t>
+          <t>["""Traffic Accidents""","""Accidents, Traffic"""]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>MeSH:D000066388</t>
+          <t>MeSH:D000064</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>["""Natural Gas Industry""","""Oil and Gas Industry""","""Industry, Natural Gas""","""Crude Oil Industry""","""Gas and Oil Industry""","""Petroleum Industry"""]</t>
+          <t>["""Acclimatization""","""Acclimation"""]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>MeSH:D000066449</t>
+          <t>MeSH:D000062</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>["""hESCs""","""Stem Cells, Human Embryonic""","""Human Embryonic Stem Cells""","""Cells, Human Embryonic Stem""","""Human Embryonic Stem Cell"""]</t>
+          <t>["""Accidents, Occupational""","""Occupational Accidents""","""Accidents, Industrial""","""Industrial Accidents"""]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>MeSH:D000066450</t>
+          <t>MeSH:D000065</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>["""mESCs""","""Cells, Mouse Embryonic Stem""","""Mouse Embryonic Stem Cells""","""Mouse Embryonic Stem Cell""","""Stem Cells, Mouse Embryonic"""]</t>
+          <t>["""Accommodation, Ocular""","""Ocular Distance Accommodation""","""Ocular Accommodation""","""Accommodation, Lens"""]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>MeSH:D000066477</t>
+          <t>MeSH:D000066</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>["""Performance at Work""","""Work Performance""","""Job Performance"""]</t>
+          <t>["""Accounting"""]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>MeSH:D000066473</t>
+          <t>MeSH:D000066428</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>["""EG Cells""","""Embryonic Germ Cells""","""Germ Cells, Embryonic"""]</t>
+          <t>["""Coal Industry"""]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>MeSH:D000066492</t>
+          <t>MeSH:D000066448</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>["""Cognitive Aging"""]</t>
+          <t>["""Driving While Intoxicated""","""Drunk Driving""","""Driving Under the Influence""","""Drinking and Driving""","""Drunken Driving"""]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>MeSH:D000066491</t>
+          <t>MeSH:D000066388</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>["""Medical Decision-Making""","""Clinical Decision-Making"""]</t>
+          <t>["""Natural Gas Industry""","""Petroleum Industry""","""Industry, Natural Gas""","""Crude Oil Industry""","""Oil and Gas Industry""","""Gas and Oil Industry"""]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>MeSH:D000066479</t>
+          <t>MeSH:D000066449</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>["""Unlawful Behavior""","""Criminal Intent""","""Illegal Behavior""","""Illicit Behavior""","""Criminal Conduct""","""Criminal Behavior"""]</t>
+          <t>["""hESCs""","""Stem Cells, Human Embryonic""","""Cells, Human Embryonic Stem""","""Human Embryonic Stem Cell""","""Human Embryonic Stem Cells"""]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>MeSH:D000066494</t>
+          <t>MeSH:D000066450</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>["""Cognitive Neuroscience"""]</t>
+          <t>["""Mouse Embryonic Stem Cells""","""mESCs""","""Cells, Mouse Embryonic Stem""","""Stem Cells, Mouse Embryonic""","""Mouse Embryonic Stem Cell"""]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>MeSH:D000066499</t>
+          <t>MeSH:D000066477</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>["""Identity Recognition""","""Facial Recognition""","""Face Perception"""]</t>
+          <t>["""Job Performance""","""Work Performance""","""Performance at Work"""]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>MeSH:D000066498</t>
+          <t>MeSH:D000066473</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>["""Psychological Adjustment""","""Emotional Adjustment""","""Emotional Adaptation"""]</t>
+          <t>["""EG Cells""","""Embryonic Germ Cells""","""Germ Cells, Embryonic"""]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>MeSH:D000066502</t>
+          <t>MeSH:D000066492</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>["""Grandparent""","""Grandparents""","""Grandfather""","""Grandmother"""]</t>
+          <t>["""Cognitive Aging"""]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>MeSH:D000066505</t>
+          <t>MeSH:D000066491</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>["""Help-Seeking Behavior"""]</t>
+          <t>["""Medical Decision-Making""","""Clinical Decision-Making"""]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>MeSH:D000066506</t>
+          <t>MeSH:D000066479</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>["""Heuristics""","""Rule of Thumb"""]</t>
+          <t>["""Illicit Behavior""","""Criminal Behavior""","""Unlawful Behavior""","""Criminal Conduct""","""Illegal Behavior""","""Criminal Intent"""]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>MeSH:D000066511</t>
+          <t>MeSH:D000066494</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>["""Intimate Partner Abuse""","""Dating Violence""","""Intimate Partner Violence"""]</t>
+          <t>["""Cognitive Neuroscience"""]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>MeSH:D000066550</t>
+          <t>MeSH:D000066499</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>["""Physical Violence""","""Physical Maltreatment""","""Physical Abuse"""]</t>
+          <t>["""Identity Recognition""","""Facial Recognition""","""Face Perception"""]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>MeSH:D000066530</t>
+          <t>MeSH:D000066498</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>["""Neurologic Rehabilitation""","""Neurological Rehabilitation""","""Neurorehabilitation"""]</t>
+          <t>["""Emotional Adaptation""","""Psychological Adjustment""","""Emotional Adjustment"""]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>MeSH:D000066553</t>
+          <t>MeSH:D000066502</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>["""Disruptive Behavior""","""Dysfunctional Behavior, Psychology""","""Behavioral Problem""","""Problem Behavior"""]</t>
+          <t>["""Grandfather""","""Grandparent""","""Grandmother""","""Grandparents"""]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>MeSH:D000066630</t>
+          <t>MeSH:D000066505</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>["""Ectopic Expression""","""Ectopic Gene Expression"""]</t>
+          <t>["""Help-Seeking Behavior"""]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>MeSH:D000066670</t>
+          <t>MeSH:D000066506</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>["""Cell Plasticity""","""Cellular Plasticity"""]</t>
+          <t>["""Rule of Thumb""","""Heuristics"""]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>MeSH:D000066673</t>
+          <t>MeSH:D000066511</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>["""Stem Cell Renewal""","""Cell Self Renewal""","""Stem Cell Self-Renewal"""]</t>
+          <t>["""Intimate Partner Violence""","""Intimate Partner Abuse""","""Dating Violence"""]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>MeSH:D000066608</t>
+          <t>MeSH:D000066550</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>["""Adolescent Alcohol Use""","""Youth Drinking""","""Underage Drinking""","""Adolescent Alcohol Consumption""","""Legal Drinking Age""","""Teen Drinking""","""Minimum Drinking Age""","""Minimum Legal Drinking Age""","""Youth Alcohol Consumption""","""Underage Alcohol Consumption""","""Underage Alcohol Use""","""Teenage Drinking""","""Adolescent Drinking"""]</t>
+          <t>["""Physical Maltreatment""","""Physical Abuse""","""Physical Violence"""]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>MeSH:D000066768</t>
+          <t>MeSH:D000066530</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>["""Rehabilitation Research"""]</t>
+          <t>["""Neurological Rehabilitation""","""Neurologic Rehabilitation""","""Neurorehabilitation"""]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>MeSH:D000066792</t>
+          <t>MeSH:D000066553</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>["""Dentofacial Orthopedists""","""Orthodontists"""]</t>
+          <t>["""Problem Behavior""","""Behavioral Problem""","""Dysfunctional Behavior, Psychology""","""Disruptive Behavior"""]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>MeSH:D000066888</t>
+          <t>MeSH:D000066630</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>["""Diet, Food, and Nutrition"""]</t>
+          <t>["""Ectopic Expression""","""Ectopic Gene Expression"""]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>MeSH:D000066794</t>
+          <t>MeSH:D000066670</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>["""Exodontists""","""Oral and Maxillofacial Surgeons""","""Maxillofacial Surgeons""","""Oral Surgeons"""]</t>
+          <t>["""Cell Plasticity""","""Cellular Plasticity"""]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>MeSH:D000066829</t>
+          <t>MeSH:D000066673</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>["""Neuronal Protection""","""Neuroprotection""","""Neural Protection""","""Neuron Protection"""]</t>
+          <t>["""Stem Cell Self-Renewal""","""Stem Cell Renewal""","""Cell Self Renewal"""]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>MeSH:D000066891</t>
+          <t>MeSH:D000066608</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>["""Critical Care Outcomes"""]</t>
+          <t>["""Underage Alcohol Consumption""","""Adolescent Drinking""","""Adolescent Alcohol Use""","""Underage Drinking""","""Adolescent Alcohol Consumption""","""Legal Drinking Age""","""Minimum Drinking Age""","""Underage Alcohol Use""","""Youth Drinking""","""Minimum Legal Drinking Age""","""Teen Drinking""","""Teenage Drinking""","""Youth Alcohol Consumption"""]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>MeSH:D000066889</t>
+          <t>MeSH:D000066768</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>["""Triticum x Secale""","""Triticosecale""","""Triticale"""]</t>
+          <t>["""Rehabilitation Research"""]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>MeSH:D000066908</t>
+          <t>MeSH:D000066792</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>["""Interactive Learning""","""Simulation Training"""]</t>
+          <t>["""Orthodontists""","""Dentofacial Orthopedists"""]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>MeSH:D000066949</t>
+          <t>MeSH:D000066888</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>["""Biobehavioral Model""","""Biobehavioral Sciences""","""Biobehavioral Approach"""]</t>
+          <t>["""Diet, Food, and Nutrition"""]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>MeSH:D000066928</t>
+          <t>MeSH:D000066794</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>["""Millets"""]</t>
+          <t>["""Oral and Maxillofacial Surgeons""","""Oral Surgeons""","""Maxillofacial Surgeons""","""Exodontists"""]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>MeSH:D000066970</t>
+          <t>MeSH:D000066829</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>["""Protein Corona"""]</t>
+          <t>["""Neural Protection""","""Neuroprotection""","""Neuron Protection""","""Neuronal Protection"""]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>MeSH:D000067</t>
+          <t>MeSH:D000066891</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>["""Accounts Payable""","""Accounts Payable and Receivable"""]</t>
+          <t>["""Critical Care Outcomes"""]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>MeSH:D000066988</t>
+          <t>MeSH:D000066889</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>["""Lacto-Ovo Vegetarians""","""Ovo-Lacto Vegetarians""","""Vegetarians"""]</t>
+          <t>["""Triticosecale""","""Triticale""","""Triticum x Secale"""]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>MeSH:D000066989</t>
+          <t>MeSH:D000066908</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>["""Vegans"""]</t>
+          <t>["""Interactive Learning""","""Simulation Training"""]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>MeSH:D000067010</t>
+          <t>MeSH:D000066949</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>["""Illiteracy""","""Literacy"""]</t>
+          <t>["""Biobehavioral Sciences""","""Biobehavioral Model""","""Biobehavioral Approach"""]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>MeSH:D000067009</t>
+          <t>MeSH:D000066928</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>["""Organized Youth Sports""","""Adolescent Sports""","""Children's Sports""","""Youth Sports"""]</t>
+          <t>["""Millets"""]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>MeSH:D000067012</t>
+          <t>MeSH:D000066970</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>["""Bank Accounts""","""Banking, Financial""","""Checking Accounts""","""Banking, Personal""","""Savings Accounts""","""Banking, Commercial"""]</t>
+          <t>["""Protein Corona"""]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>MeSH:D000067013</t>
+          <t>MeSH:D000067</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>["""Evidence-Based Facility Design"""]</t>
+          <t>["""Accounts Payable and Receivable""","""Accounts Payable"""]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
+          <t>MeSH:D000066988</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>["""Lacto-Ovo Vegetarians""","""Vegetarians""","""Ovo-Lacto Vegetarians"""]</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>MeSH:D000066989</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>["""Vegans"""]</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>MeSH:D000067010</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>["""Literacy""","""Illiteracy"""]</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>MeSH:D000067009</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>["""Children's Sports""","""Youth Sports""","""Adolescent Sports""","""Organized Youth Sports"""]</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>MeSH:D000067012</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>["""Banking, Commercial""","""Banking, Personal""","""Bank Accounts""","""Banking, Financial""","""Checking Accounts""","""Savings Accounts"""]</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>MeSH:D000067013</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>["""Evidence-Based Facility Design"""]</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
           <t>MeSH:D000067029</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>["""Body, Physical Appearance""","""Physical Appearance""","""Outward Appearance""","""Physical Appearance, Body"""]</t>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>["""Outward Appearance""","""Physical Appearance""","""Physical Appearance, Body""","""Body, Physical Appearance"""]</t>
         </is>
       </c>
     </row>
@@ -19348,43 +19420,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>["""nickel allergic contact dermatitis""","""allergic contact dermatitis to Ni"""],["""chromium allergic contact dermatitis"""]</t>
+          <t>["""allergic contact dermatitis to Ni""","""nickel allergic contact dermatitis"""],["""chromium allergic contact dermatitis"""]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3,xref,ICD10_CM:A18.32,ICD10_CM:A04,ICD10_CM:A18.83</t>
+          <t>3,xref,ICD10_CM:A18.83,ICD10_CM:A18.32,ICD10_CM:A04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of intestine (large) (small)Tuberculous enteritis""","""Tuberculosis of intestine (large) (small)""","""Tuberculous enteritis""","""Tuberculosis of anus and rectum"""],["""bacterial foodborne intoxications, NEC""","""Other bacterial intestinal infections""","""tuberculous enteritis"""],["""tuberculosis of intestine""","""Tuberculosis of digestive tract organs, not elsewhere classified"""]</t>
+          <t>["""Tuberculosis of digestive tract organs, not elsewhere classified""","""tuberculosis of intestine"""],["""Tuberculous enteritis""","""Tuberculosis of intestine (large) (small)""","""Tuberculosis of intestine (large) (small)Tuberculous enteritis""","""Tuberculosis of anus and rectum"""],["""Other bacterial intestinal infections""","""tuberculous enteritis""","""bacterial foodborne intoxications, NEC"""]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5,xref,ICD10_CM:A15.4,ICD10_CM:A18.39,ICD10_CM:A15.7,ICD10_CM:A18.2,ICD10_CM:A15.6</t>
+          <t>5,xref,ICD10_CM:A18.2,ICD10_CM:A15.6,ICD10_CM:A18.39,ICD10_CM:A15.7,ICD10_CM:A15.4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of tracheobronchial lymph nodes""","""Tuberculosis of intrathoracic lymph nodes""","""Tuberculosis of mediastinal lymph nodesTuberculosis of hilar lymph nodes""","""Tuberculosis of mediastinal lymph nodes""","""Tuberculosis of hilar lymph nodes"""],["""Tuberculosis of mesenteric glandsTuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of mesenteric glands""","""Retroperitoneal tuberculosis"""],["""Primary respiratory tuberculosis"""],["""tuberculous tracheobronchial adenopathy""","""Tuberculous adenitis""","""Tuberculous peripheral lymphadenopathy""","""tuberculosis of mesenteric and retroperitoneal lymph nodes""","""tuberculosis of mesenteric and retroperitoneal lymph nodestuberculous tracheobronchial adenopathy"""],["""Tuberculosis of pleura Tuberculous empyema""","""Tuberculous pleurisy""","""primary respiratory tuberculosis"""]</t>
+          <t>["""tuberculous tracheobronchial adenopathy""","""Tuberculous peripheral lymphadenopathy""","""tuberculosis of mesenteric and retroperitoneal lymph nodes""","""tuberculosis of mesenteric and retroperitoneal lymph nodestuberculous tracheobronchial adenopathy""","""Tuberculous adenitis"""],["""Tuberculous pleurisy""","""primary respiratory tuberculosis""","""Tuberculosis of pleura Tuberculous empyema"""],["""Tuberculosis of mesenteric glands""","""Tuberculosis of mesenteric glandsTuberculosis of retroperitoneal (lymph glands)""","""Tuberculosis of retroperitoneal (lymph glands)""","""Retroperitoneal tuberculosis"""],["""Primary respiratory tuberculosis"""],["""Tuberculosis of hilar lymph nodes""","""Tuberculosis of mediastinal lymph nodes""","""Tuberculosis of tracheobronchial lymph nodes""","""Tuberculosis of mediastinal lymph nodesTuberculosis of hilar lymph nodes""","""Tuberculosis of intrathoracic lymph nodes"""]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2,xref,ICD10_CM:A17.0,ICD10_CM:A17.82</t>
+          <t>2,xref,ICD10_CM:A17.82,ICD10_CM:A17.0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>["""tuberculous meningoencephalitis""","""Tuberculous leptomeningitis""","""Tuberculosis of meninges (cerebral)(spinal)""","""Tuberculous meningitis""","""Tuberculous meningitisTuberculosis of meninges (cerebral)(spinal)"""],["""Tuberculous meningoencephalitis""","""Tuberculous myelitis"""]</t>
+          <t>["""Tuberculous myelitis""","""Tuberculous meningoencephalitis"""],["""Tuberculous meningitis""","""Tuberculosis of meninges (cerebral)(spinal)""","""Tuberculous meningitisTuberculosis of meninges (cerebral)(spinal)""","""tuberculous meningoencephalitis""","""Tuberculous leptomeningitis"""]</t>
         </is>
       </c>
     </row>
@@ -19396,19 +19468,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>["""tuberculoma of brain and spinal cord""","""Tuberculoma of meninges (cerebral) (spinal)Meningeal tuberculoma""","""Tuberculoma of meninges (cerebral) (spinal)""","""Meningeal tuberculoma"""],["""Tuberculous abscess of brain and spinal cord""","""Tuberculoma of brain and spinal cord"""]</t>
+          <t>["""tuberculoma of brain and spinal cord""","""Meningeal tuberculoma""","""Tuberculoma of meninges (cerebral) (spinal)""","""Tuberculoma of meninges (cerebral) (spinal)Meningeal tuberculoma"""],["""Tuberculous abscess of brain and spinal cord""","""Tuberculoma of brain and spinal cord"""]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4,xref,ICD10_CM:A18.4,ICD10_CM:A18.03,ICD10_CM:A18.6,ICD10_CM:A18.5</t>
+          <t>4,xref,ICD10_CM:A18.03,ICD10_CM:A18.5,ICD10_CM:A18.4,ICD10_CM:A18.6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>["""Tuberculosis of skin and subcutaneous tissuelupus erythematosus""","""Lupus excedens""","""Tuberculosis of skin and subcutaneous tissue""","""lupus erythematosus"""],["""Tuberculosis of other bones""","""Tuberculous mastoiditisTuberculous osteomyelitis""","""Tuberculous mastoiditis""","""Tuberculous osteomyelitis"""],["""tuberculosis of external eartuberculous mastoiditis""","""tuberculosis of external ear""","""Tuberculosis of (inner) (middle) ear""","""tuberculous mastoiditis"""],["""lupus vulgaris of eyelid""","""Tuberculosis of eye"""]</t>
+          <t>["""Tuberculous mastoiditisTuberculous osteomyelitis""","""Tuberculous mastoiditis""","""Tuberculous osteomyelitis""","""Tuberculosis of other bones"""],["""Tuberculosis of eye""","""lupus vulgaris of eyelid"""],["""Lupus excedens""","""Tuberculosis of skin and subcutaneous tissuelupus erythematosus""","""Tuberculosis of skin and subcutaneous tissue""","""lupus erythematosus"""],["""Tuberculosis of (inner) (middle) ear""","""tuberculosis of external ear""","""tuberculous mastoiditis""","""tuberculosis of external eartuberculous mastoiditis"""]</t>
         </is>
       </c>
     </row>
